--- a/Support/Sunac2019/Data/本地原型数据.xlsx
+++ b/Support/Sunac2019/Data/本地原型数据.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0CAD\Project\融创\Code\Support\Sunac2019\LocalMode\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{363D1F27-A680-4D7E-A1E9-A34F526E471F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896"/>
   </bookViews>
   <sheets>
     <sheet name="外窗数据" sheetId="1" r:id="rId1"/>
     <sheet name="空调数据" sheetId="3" r:id="rId2"/>
     <sheet name="说明" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -789,9 +783,6 @@
     <t>Window_NDC7_1.dwg</t>
   </si>
   <si>
-    <t>Window_NDC_8.dwg</t>
-  </si>
-  <si>
     <t>Window_NDC9_0.dwg</t>
   </si>
   <si>
@@ -876,15 +867,6 @@
     <t>Door_TLM4.dwg</t>
   </si>
   <si>
-    <t>Door_TLM5.dwg</t>
-  </si>
-  <si>
-    <t>Door_TLM6.dwg</t>
-  </si>
-  <si>
-    <t>Door_TLM7.dwg</t>
-  </si>
-  <si>
     <t>Door_WM1.dwg</t>
   </si>
   <si>
@@ -960,9 +942,6 @@
     <t>Window_NDC7_1</t>
   </si>
   <si>
-    <t>Window_NDC_8</t>
-  </si>
-  <si>
     <t>Window_NDC9_0</t>
   </si>
   <si>
@@ -1033,24 +1012,6 @@
   </si>
   <si>
     <t>Door_TLM1</t>
-  </si>
-  <si>
-    <t>Door_TLM2</t>
-  </si>
-  <si>
-    <t>Door_TLM3</t>
-  </si>
-  <si>
-    <t>Door_TLM4</t>
-  </si>
-  <si>
-    <t>Door_TLM5</t>
-  </si>
-  <si>
-    <t>Door_TLM6</t>
-  </si>
-  <si>
-    <t>Door_TLM7</t>
   </si>
   <si>
     <t>Door_WM1</t>
@@ -1339,11 +1300,51 @@
     <t>是否有雨水立管</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Window_NDC8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Window_NDC8.dwg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Door_TLM2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Door_TLM3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Door_TLM4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Door_TSTLM1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Door_TSTLM2</t>
+  </si>
+  <si>
+    <t>Door_TSTLM3</t>
+  </si>
+  <si>
+    <t>Door_TSTLM1.dwg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Door_TSTLM2.dwg</t>
+  </si>
+  <si>
+    <t>Door_TSTLM3.dwg</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1498,18 +1499,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1545,6 +1534,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1820,21 +1821,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BI70"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F13" sqref="F1:F1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="L61" sqref="L61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.88671875" style="36" customWidth="1"/>
-    <col min="3" max="3" width="22.33203125" style="36" customWidth="1"/>
-    <col min="4" max="4" width="24.21875" style="36" customWidth="1"/>
-    <col min="5" max="5" width="23.33203125" style="36" customWidth="1"/>
-    <col min="6" max="6" width="22.33203125" style="36" customWidth="1"/>
+    <col min="2" max="2" width="21.88671875" style="32" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" style="32" customWidth="1"/>
+    <col min="4" max="4" width="24.21875" style="32" customWidth="1"/>
+    <col min="5" max="5" width="23.33203125" style="32" customWidth="1"/>
+    <col min="6" max="6" width="22.33203125" style="32" customWidth="1"/>
     <col min="7" max="7" width="6.6640625" style="1" customWidth="1"/>
     <col min="8" max="8" width="6.33203125" style="1" customWidth="1"/>
     <col min="9" max="9" width="10.21875" style="1" customWidth="1"/>
@@ -1876,20 +1877,20 @@
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="33" t="s">
-        <v>332</v>
-      </c>
-      <c r="D1" s="33" t="s">
+      <c r="C1" s="29" t="s">
+        <v>321</v>
+      </c>
+      <c r="D1" s="29" t="s">
         <v>153</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="33" t="s">
-        <v>333</v>
+      <c r="F1" s="29" t="s">
+        <v>322</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>3</v>
@@ -1909,44 +1910,44 @@
       <c r="L1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="31" t="s">
-        <v>331</v>
-      </c>
-      <c r="N1" s="29" t="s">
-        <v>323</v>
-      </c>
-      <c r="O1" s="29" t="s">
-        <v>324</v>
-      </c>
-      <c r="P1" s="29" t="s">
-        <v>325</v>
-      </c>
-      <c r="Q1" s="29" t="s">
-        <v>326</v>
-      </c>
-      <c r="R1" s="29" t="s">
-        <v>327</v>
-      </c>
-      <c r="S1" s="29" t="s">
-        <v>328</v>
-      </c>
-      <c r="T1" s="30" t="s">
+      <c r="M1" s="27" t="s">
+        <v>320</v>
+      </c>
+      <c r="N1" s="25" t="s">
+        <v>312</v>
+      </c>
+      <c r="O1" s="25" t="s">
+        <v>313</v>
+      </c>
+      <c r="P1" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q1" s="25" t="s">
+        <v>315</v>
+      </c>
+      <c r="R1" s="25" t="s">
+        <v>316</v>
+      </c>
+      <c r="S1" s="25" t="s">
         <v>317</v>
       </c>
-      <c r="U1" s="30" t="s">
-        <v>318</v>
+      <c r="T1" s="26" t="s">
+        <v>306</v>
+      </c>
+      <c r="U1" s="26" t="s">
+        <v>307</v>
       </c>
       <c r="V1" s="18" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="W1" s="18" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="X1" s="18" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="Y1" s="18" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="Z1" s="7" t="s">
         <v>9</v>
@@ -2059,25 +2060,25 @@
     </row>
     <row r="2" spans="1:61" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
-      <c r="B2" s="32" t="s">
-        <v>216</v>
-      </c>
-      <c r="C2" s="32" t="s">
+      <c r="B2" s="28" t="s">
+        <v>212</v>
+      </c>
+      <c r="C2" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="D2" s="34" t="s">
+      <c r="D2" s="30" t="s">
         <v>154</v>
       </c>
-      <c r="E2" s="33" t="str">
-        <f>SUBSTITUTE(C2,".","_P.",1)</f>
+      <c r="E2" s="29" t="str">
+        <f t="shared" ref="E2:E33" si="0">SUBSTITUTE(C2,".","_P.",1)</f>
         <v>Window_NC1_P.dwg</v>
       </c>
-      <c r="F2" s="32"/>
+      <c r="F2" s="28"/>
       <c r="G2" s="4" t="s">
         <v>46</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>46</v>
@@ -2092,8 +2093,8 @@
         <v>49</v>
       </c>
       <c r="M2" s="6"/>
-      <c r="N2" s="29" t="s">
-        <v>329</v>
+      <c r="N2" s="25" t="s">
+        <v>318</v>
       </c>
       <c r="O2" s="7"/>
       <c r="P2" s="7">
@@ -2104,8 +2105,8 @@
       </c>
       <c r="R2" s="7"/>
       <c r="S2" s="7"/>
-      <c r="T2" s="30" t="s">
-        <v>330</v>
+      <c r="T2" s="26" t="s">
+        <v>319</v>
       </c>
       <c r="U2" s="9"/>
       <c r="V2" s="4"/>
@@ -2167,20 +2168,20 @@
     </row>
     <row r="3" spans="1:61" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="28" t="s">
         <v>155</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="D3" s="30" t="s">
         <v>155</v>
       </c>
-      <c r="E3" s="33" t="str">
-        <f>SUBSTITUTE(C3,".","_P.",1)</f>
+      <c r="E3" s="29" t="str">
+        <f t="shared" si="0"/>
         <v>Window_NC2_0_P.dwg</v>
       </c>
-      <c r="F3" s="32"/>
+      <c r="F3" s="28"/>
       <c r="G3" s="4" t="s">
         <v>46</v>
       </c>
@@ -2200,8 +2201,8 @@
         <v>54</v>
       </c>
       <c r="M3" s="6"/>
-      <c r="N3" s="29" t="s">
-        <v>329</v>
+      <c r="N3" s="25" t="s">
+        <v>318</v>
       </c>
       <c r="O3" s="7"/>
       <c r="P3" s="7">
@@ -2212,8 +2213,8 @@
       </c>
       <c r="R3" s="7"/>
       <c r="S3" s="7"/>
-      <c r="T3" s="30" t="s">
-        <v>330</v>
+      <c r="T3" s="26" t="s">
+        <v>319</v>
       </c>
       <c r="U3" s="9"/>
       <c r="V3" s="4"/>
@@ -2277,20 +2278,20 @@
     </row>
     <row r="4" spans="1:61" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="28" t="s">
         <v>147</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="28" t="s">
         <v>156</v>
       </c>
-      <c r="D4" s="34" t="s">
+      <c r="D4" s="30" t="s">
         <v>156</v>
       </c>
-      <c r="E4" s="33" t="str">
-        <f>SUBSTITUTE(C4,".","_P.",1)</f>
+      <c r="E4" s="29" t="str">
+        <f t="shared" si="0"/>
         <v>Window_NC2_1_P.dwg</v>
       </c>
-      <c r="F4" s="32"/>
+      <c r="F4" s="28"/>
       <c r="G4" s="4" t="s">
         <v>46</v>
       </c>
@@ -2310,8 +2311,8 @@
         <v>54</v>
       </c>
       <c r="M4" s="6"/>
-      <c r="N4" s="29" t="s">
-        <v>329</v>
+      <c r="N4" s="25" t="s">
+        <v>318</v>
       </c>
       <c r="O4" s="7"/>
       <c r="P4" s="7">
@@ -2322,8 +2323,8 @@
       </c>
       <c r="R4" s="7"/>
       <c r="S4" s="7"/>
-      <c r="T4" s="30" t="s">
-        <v>330</v>
+      <c r="T4" s="26" t="s">
+        <v>319</v>
       </c>
       <c r="U4" s="9"/>
       <c r="V4" s="4"/>
@@ -2389,20 +2390,20 @@
     </row>
     <row r="5" spans="1:61" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="28" t="s">
         <v>148</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="28" t="s">
         <v>157</v>
       </c>
-      <c r="D5" s="34" t="s">
+      <c r="D5" s="30" t="s">
         <v>157</v>
       </c>
-      <c r="E5" s="33" t="str">
-        <f>SUBSTITUTE(C5,".","_P.",1)</f>
+      <c r="E5" s="29" t="str">
+        <f t="shared" si="0"/>
         <v>Window_NC3_P.dwg</v>
       </c>
-      <c r="F5" s="32"/>
+      <c r="F5" s="28"/>
       <c r="G5" s="4" t="s">
         <v>46</v>
       </c>
@@ -2422,8 +2423,8 @@
         <v>58</v>
       </c>
       <c r="M5" s="6"/>
-      <c r="N5" s="29" t="s">
-        <v>329</v>
+      <c r="N5" s="25" t="s">
+        <v>318</v>
       </c>
       <c r="O5" s="7"/>
       <c r="P5" s="7">
@@ -2434,8 +2435,8 @@
       </c>
       <c r="R5" s="7"/>
       <c r="S5" s="7"/>
-      <c r="T5" s="30" t="s">
-        <v>330</v>
+      <c r="T5" s="26" t="s">
+        <v>319</v>
       </c>
       <c r="U5" s="9"/>
       <c r="V5" s="4"/>
@@ -2497,20 +2498,20 @@
     </row>
     <row r="6" spans="1:61" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="28" t="s">
         <v>149</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="D6" s="34" t="s">
+      <c r="D6" s="30" t="s">
         <v>127</v>
       </c>
-      <c r="E6" s="33" t="str">
-        <f>SUBSTITUTE(C6,".","_P.",1)</f>
+      <c r="E6" s="29" t="str">
+        <f t="shared" si="0"/>
         <v>Window_NC4_P.dwg</v>
       </c>
-      <c r="F6" s="32"/>
+      <c r="F6" s="28"/>
       <c r="G6" s="4" t="s">
         <v>46</v>
       </c>
@@ -2530,8 +2531,8 @@
         <v>58</v>
       </c>
       <c r="M6" s="6"/>
-      <c r="N6" s="29" t="s">
-        <v>329</v>
+      <c r="N6" s="25" t="s">
+        <v>318</v>
       </c>
       <c r="O6" s="7"/>
       <c r="P6" s="7">
@@ -2542,8 +2543,8 @@
       </c>
       <c r="R6" s="7"/>
       <c r="S6" s="7"/>
-      <c r="T6" s="30" t="s">
-        <v>330</v>
+      <c r="T6" s="26" t="s">
+        <v>319</v>
       </c>
       <c r="U6" s="9"/>
       <c r="V6" s="4"/>
@@ -2609,20 +2610,20 @@
     </row>
     <row r="7" spans="1:61" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="28" t="s">
         <v>150</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="D7" s="34" t="s">
+      <c r="D7" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="E7" s="33" t="str">
-        <f>SUBSTITUTE(C7,".","_P.",1)</f>
+      <c r="E7" s="29" t="str">
+        <f t="shared" si="0"/>
         <v>Window_NC5_P.dwg</v>
       </c>
-      <c r="F7" s="32"/>
+      <c r="F7" s="28"/>
       <c r="G7" s="4" t="s">
         <v>46</v>
       </c>
@@ -2642,8 +2643,8 @@
         <v>60</v>
       </c>
       <c r="M7" s="6"/>
-      <c r="N7" s="29" t="s">
-        <v>329</v>
+      <c r="N7" s="25" t="s">
+        <v>318</v>
       </c>
       <c r="O7" s="7"/>
       <c r="P7" s="7">
@@ -2654,8 +2655,8 @@
       </c>
       <c r="R7" s="7"/>
       <c r="S7" s="7"/>
-      <c r="T7" s="30" t="s">
-        <v>330</v>
+      <c r="T7" s="26" t="s">
+        <v>319</v>
       </c>
       <c r="U7" s="9"/>
       <c r="V7" s="4"/>
@@ -2721,20 +2722,20 @@
     </row>
     <row r="8" spans="1:61" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="28" t="s">
         <v>151</v>
       </c>
-      <c r="C8" s="32" t="s">
+      <c r="C8" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="D8" s="34" t="s">
+      <c r="D8" s="30" t="s">
         <v>129</v>
       </c>
-      <c r="E8" s="33" t="str">
-        <f>SUBSTITUTE(C8,".","_P.",1)</f>
+      <c r="E8" s="29" t="str">
+        <f t="shared" si="0"/>
         <v>Window_NC6_P.dwg</v>
       </c>
-      <c r="F8" s="32"/>
+      <c r="F8" s="28"/>
       <c r="G8" s="4" t="s">
         <v>46</v>
       </c>
@@ -2754,8 +2755,8 @@
         <v>58</v>
       </c>
       <c r="M8" s="6"/>
-      <c r="N8" s="29" t="s">
-        <v>329</v>
+      <c r="N8" s="25" t="s">
+        <v>318</v>
       </c>
       <c r="O8" s="7"/>
       <c r="P8" s="7">
@@ -2766,8 +2767,8 @@
       </c>
       <c r="R8" s="7"/>
       <c r="S8" s="7"/>
-      <c r="T8" s="30" t="s">
-        <v>330</v>
+      <c r="T8" s="26" t="s">
+        <v>319</v>
       </c>
       <c r="U8" s="9"/>
       <c r="V8" s="4"/>
@@ -2833,20 +2834,20 @@
     </row>
     <row r="9" spans="1:61" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
-      <c r="B9" s="32" t="s">
-        <v>300</v>
-      </c>
-      <c r="C9" s="32" t="s">
-        <v>274</v>
-      </c>
-      <c r="D9" s="34" t="s">
-        <v>274</v>
-      </c>
-      <c r="E9" s="33" t="str">
-        <f>SUBSTITUTE(C9,".","_P.",1)</f>
+      <c r="B9" s="28" t="s">
+        <v>289</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>263</v>
+      </c>
+      <c r="E9" s="29" t="str">
+        <f t="shared" si="0"/>
         <v>Window_NC7_0_P.dwg</v>
       </c>
-      <c r="F9" s="32"/>
+      <c r="F9" s="28"/>
       <c r="G9" s="4" t="s">
         <v>46</v>
       </c>
@@ -2866,8 +2867,8 @@
         <v>63</v>
       </c>
       <c r="M9" s="6"/>
-      <c r="N9" s="29" t="s">
-        <v>329</v>
+      <c r="N9" s="25" t="s">
+        <v>318</v>
       </c>
       <c r="O9" s="7"/>
       <c r="P9" s="7">
@@ -2878,8 +2879,8 @@
       </c>
       <c r="R9" s="7"/>
       <c r="S9" s="7"/>
-      <c r="T9" s="30" t="s">
-        <v>330</v>
+      <c r="T9" s="26" t="s">
+        <v>319</v>
       </c>
       <c r="U9" s="9"/>
       <c r="V9" s="4"/>
@@ -2947,20 +2948,20 @@
     </row>
     <row r="10" spans="1:61" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
-      <c r="B10" s="32" t="s">
-        <v>301</v>
-      </c>
-      <c r="C10" s="32" t="s">
+      <c r="B10" s="28" t="s">
+        <v>290</v>
+      </c>
+      <c r="C10" s="28" t="s">
         <v>158</v>
       </c>
-      <c r="D10" s="34" t="s">
+      <c r="D10" s="30" t="s">
         <v>158</v>
       </c>
-      <c r="E10" s="33" t="str">
-        <f>SUBSTITUTE(C10,".","_P.",1)</f>
+      <c r="E10" s="29" t="str">
+        <f t="shared" si="0"/>
         <v>Window_NC7_1_P.dwg</v>
       </c>
-      <c r="F10" s="32"/>
+      <c r="F10" s="28"/>
       <c r="G10" s="4" t="s">
         <v>46</v>
       </c>
@@ -2980,8 +2981,8 @@
         <v>63</v>
       </c>
       <c r="M10" s="6"/>
-      <c r="N10" s="29" t="s">
-        <v>329</v>
+      <c r="N10" s="25" t="s">
+        <v>318</v>
       </c>
       <c r="O10" s="7"/>
       <c r="P10" s="7">
@@ -2992,8 +2993,8 @@
       </c>
       <c r="R10" s="7"/>
       <c r="S10" s="7"/>
-      <c r="T10" s="30" t="s">
-        <v>330</v>
+      <c r="T10" s="26" t="s">
+        <v>319</v>
       </c>
       <c r="U10" s="9"/>
       <c r="V10" s="4"/>
@@ -3063,20 +3064,20 @@
     </row>
     <row r="11" spans="1:61" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="C11" s="32" t="s">
+      <c r="C11" s="28" t="s">
         <v>159</v>
       </c>
-      <c r="D11" s="34" t="s">
+      <c r="D11" s="30" t="s">
         <v>159</v>
       </c>
-      <c r="E11" s="33" t="str">
-        <f>SUBSTITUTE(C11,".","_P.",1)</f>
+      <c r="E11" s="29" t="str">
+        <f t="shared" si="0"/>
         <v>Window_NC8_P.dwg</v>
       </c>
-      <c r="F11" s="32"/>
+      <c r="F11" s="28"/>
       <c r="G11" s="4" t="s">
         <v>46</v>
       </c>
@@ -3096,8 +3097,8 @@
         <v>58</v>
       </c>
       <c r="M11" s="6"/>
-      <c r="N11" s="29" t="s">
-        <v>329</v>
+      <c r="N11" s="25" t="s">
+        <v>318</v>
       </c>
       <c r="O11" s="7"/>
       <c r="P11" s="7">
@@ -3108,8 +3109,8 @@
       </c>
       <c r="R11" s="7"/>
       <c r="S11" s="7"/>
-      <c r="T11" s="30" t="s">
-        <v>330</v>
+      <c r="T11" s="26" t="s">
+        <v>319</v>
       </c>
       <c r="U11" s="4"/>
       <c r="V11" s="4"/>
@@ -3175,20 +3176,20 @@
     </row>
     <row r="12" spans="1:61" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
-      <c r="B12" s="32" t="s">
-        <v>217</v>
-      </c>
-      <c r="C12" s="32" t="s">
+      <c r="B12" s="28" t="s">
+        <v>213</v>
+      </c>
+      <c r="C12" s="28" t="s">
         <v>160</v>
       </c>
-      <c r="D12" s="34" t="s">
+      <c r="D12" s="30" t="s">
         <v>160</v>
       </c>
-      <c r="E12" s="33" t="str">
-        <f>SUBSTITUTE(C12,".","_P.",1)</f>
+      <c r="E12" s="29" t="str">
+        <f t="shared" si="0"/>
         <v>Window_NC9_0_P.dwg</v>
       </c>
-      <c r="F12" s="32"/>
+      <c r="F12" s="28"/>
       <c r="G12" s="4" t="s">
         <v>46</v>
       </c>
@@ -3208,8 +3209,8 @@
         <v>64</v>
       </c>
       <c r="M12" s="6"/>
-      <c r="N12" s="29" t="s">
-        <v>329</v>
+      <c r="N12" s="25" t="s">
+        <v>318</v>
       </c>
       <c r="O12" s="7"/>
       <c r="P12" s="7">
@@ -3220,8 +3221,8 @@
       </c>
       <c r="R12" s="7"/>
       <c r="S12" s="7"/>
-      <c r="T12" s="30" t="s">
-        <v>330</v>
+      <c r="T12" s="26" t="s">
+        <v>319</v>
       </c>
       <c r="U12" s="9"/>
       <c r="V12" s="4"/>
@@ -3291,20 +3292,20 @@
     </row>
     <row r="13" spans="1:61" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
-      <c r="B13" s="32" t="s">
-        <v>218</v>
-      </c>
-      <c r="C13" s="32" t="s">
+      <c r="B13" s="28" t="s">
+        <v>214</v>
+      </c>
+      <c r="C13" s="28" t="s">
         <v>161</v>
       </c>
-      <c r="D13" s="34" t="s">
+      <c r="D13" s="30" t="s">
         <v>161</v>
       </c>
-      <c r="E13" s="33" t="str">
-        <f>SUBSTITUTE(C13,".","_P.",1)</f>
+      <c r="E13" s="29" t="str">
+        <f t="shared" si="0"/>
         <v>Window_NC9_1_P.dwg</v>
       </c>
-      <c r="F13" s="32"/>
+      <c r="F13" s="28"/>
       <c r="G13" s="4" t="s">
         <v>46</v>
       </c>
@@ -3324,8 +3325,8 @@
         <v>64</v>
       </c>
       <c r="M13" s="6"/>
-      <c r="N13" s="29" t="s">
-        <v>329</v>
+      <c r="N13" s="25" t="s">
+        <v>318</v>
       </c>
       <c r="O13" s="7"/>
       <c r="P13" s="7">
@@ -3336,8 +3337,8 @@
       </c>
       <c r="R13" s="7"/>
       <c r="S13" s="7"/>
-      <c r="T13" s="30" t="s">
-        <v>330</v>
+      <c r="T13" s="26" t="s">
+        <v>319</v>
       </c>
       <c r="U13" s="9"/>
       <c r="V13" s="4"/>
@@ -3407,20 +3408,20 @@
     </row>
     <row r="14" spans="1:61" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
-      <c r="B14" s="32" t="s">
-        <v>219</v>
-      </c>
-      <c r="C14" s="32" t="s">
+      <c r="B14" s="28" t="s">
+        <v>215</v>
+      </c>
+      <c r="C14" s="28" t="s">
         <v>162</v>
       </c>
-      <c r="D14" s="34" t="s">
+      <c r="D14" s="30" t="s">
         <v>162</v>
       </c>
-      <c r="E14" s="33" t="str">
-        <f>SUBSTITUTE(C14,".","_P.",1)</f>
+      <c r="E14" s="29" t="str">
+        <f t="shared" si="0"/>
         <v>Window_NC9_2_P.dwg</v>
       </c>
-      <c r="F14" s="32"/>
+      <c r="F14" s="28"/>
       <c r="G14" s="4" t="s">
         <v>46</v>
       </c>
@@ -3440,8 +3441,8 @@
         <v>64</v>
       </c>
       <c r="M14" s="6"/>
-      <c r="N14" s="29" t="s">
-        <v>329</v>
+      <c r="N14" s="25" t="s">
+        <v>318</v>
       </c>
       <c r="O14" s="7"/>
       <c r="P14" s="7">
@@ -3452,8 +3453,8 @@
       </c>
       <c r="R14" s="7"/>
       <c r="S14" s="7"/>
-      <c r="T14" s="30" t="s">
-        <v>330</v>
+      <c r="T14" s="26" t="s">
+        <v>319</v>
       </c>
       <c r="U14" s="9"/>
       <c r="V14" s="4"/>
@@ -3523,20 +3524,20 @@
     </row>
     <row r="15" spans="1:61" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
-      <c r="B15" s="32" t="s">
-        <v>220</v>
-      </c>
-      <c r="C15" s="32" t="s">
+      <c r="B15" s="28" t="s">
+        <v>216</v>
+      </c>
+      <c r="C15" s="28" t="s">
         <v>163</v>
       </c>
-      <c r="D15" s="34" t="s">
+      <c r="D15" s="30" t="s">
         <v>163</v>
       </c>
-      <c r="E15" s="33" t="str">
-        <f>SUBSTITUTE(C15,".","_P.",1)</f>
+      <c r="E15" s="29" t="str">
+        <f t="shared" si="0"/>
         <v>Window_NZC1_P.dwg</v>
       </c>
-      <c r="F15" s="32"/>
+      <c r="F15" s="28"/>
       <c r="G15" s="4" t="s">
         <v>46</v>
       </c>
@@ -3556,8 +3557,8 @@
         <v>63</v>
       </c>
       <c r="M15" s="6"/>
-      <c r="N15" s="29" t="s">
-        <v>329</v>
+      <c r="N15" s="25" t="s">
+        <v>318</v>
       </c>
       <c r="O15" s="7"/>
       <c r="P15" s="7">
@@ -3568,8 +3569,8 @@
       </c>
       <c r="R15" s="7"/>
       <c r="S15" s="7"/>
-      <c r="T15" s="30" t="s">
-        <v>330</v>
+      <c r="T15" s="26" t="s">
+        <v>319</v>
       </c>
       <c r="U15" s="9"/>
       <c r="V15" s="4"/>
@@ -3643,20 +3644,20 @@
     </row>
     <row r="16" spans="1:61" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
-      <c r="B16" s="32" t="s">
-        <v>221</v>
-      </c>
-      <c r="C16" s="32" t="s">
+      <c r="B16" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="C16" s="28" t="s">
         <v>164</v>
       </c>
-      <c r="D16" s="34" t="s">
+      <c r="D16" s="30" t="s">
         <v>164</v>
       </c>
-      <c r="E16" s="33" t="str">
-        <f>SUBSTITUTE(C16,".","_P.",1)</f>
+      <c r="E16" s="29" t="str">
+        <f t="shared" si="0"/>
         <v>Window_NZC2_0_P.dwg</v>
       </c>
-      <c r="F16" s="32"/>
+      <c r="F16" s="28"/>
       <c r="G16" s="4" t="s">
         <v>46</v>
       </c>
@@ -3673,11 +3674,11 @@
         <v>2</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="M16" s="6"/>
-      <c r="N16" s="29" t="s">
-        <v>329</v>
+      <c r="N16" s="25" t="s">
+        <v>318</v>
       </c>
       <c r="O16" s="7"/>
       <c r="P16" s="7">
@@ -3688,8 +3689,8 @@
       </c>
       <c r="R16" s="7"/>
       <c r="S16" s="7"/>
-      <c r="T16" s="30" t="s">
-        <v>330</v>
+      <c r="T16" s="26" t="s">
+        <v>319</v>
       </c>
       <c r="U16" s="9"/>
       <c r="V16" s="4"/>
@@ -3763,20 +3764,20 @@
     </row>
     <row r="17" spans="1:61" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
-      <c r="B17" s="32" t="s">
-        <v>222</v>
-      </c>
-      <c r="C17" s="32" t="s">
+      <c r="B17" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="C17" s="28" t="s">
         <v>165</v>
       </c>
-      <c r="D17" s="34" t="s">
+      <c r="D17" s="30" t="s">
         <v>165</v>
       </c>
-      <c r="E17" s="33" t="str">
-        <f>SUBSTITUTE(C17,".","_P.",1)</f>
+      <c r="E17" s="29" t="str">
+        <f t="shared" si="0"/>
         <v>Window_NZC2_1_P.dwg</v>
       </c>
-      <c r="F17" s="32"/>
+      <c r="F17" s="28"/>
       <c r="G17" s="4" t="s">
         <v>46</v>
       </c>
@@ -3793,11 +3794,11 @@
         <v>2</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="M17" s="6"/>
-      <c r="N17" s="29" t="s">
-        <v>329</v>
+      <c r="N17" s="25" t="s">
+        <v>318</v>
       </c>
       <c r="O17" s="7"/>
       <c r="P17" s="7">
@@ -3808,8 +3809,8 @@
       </c>
       <c r="R17" s="7"/>
       <c r="S17" s="7"/>
-      <c r="T17" s="30" t="s">
-        <v>330</v>
+      <c r="T17" s="26" t="s">
+        <v>319</v>
       </c>
       <c r="U17" s="9"/>
       <c r="V17" s="4"/>
@@ -3883,20 +3884,20 @@
     </row>
     <row r="18" spans="1:61" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
-      <c r="B18" s="33" t="s">
-        <v>223</v>
-      </c>
-      <c r="C18" s="32" t="s">
+      <c r="B18" s="29" t="s">
+        <v>219</v>
+      </c>
+      <c r="C18" s="28" t="s">
         <v>166</v>
       </c>
-      <c r="D18" s="32" t="s">
+      <c r="D18" s="28" t="s">
         <v>166</v>
       </c>
-      <c r="E18" s="33" t="str">
-        <f>SUBSTITUTE(C18,".","_P.",1)</f>
+      <c r="E18" s="29" t="str">
+        <f t="shared" si="0"/>
         <v>Window_NC10_P.dwg</v>
       </c>
-      <c r="F18" s="32"/>
+      <c r="F18" s="28"/>
       <c r="G18" s="4" t="s">
         <v>46</v>
       </c>
@@ -3913,11 +3914,11 @@
         <v>2</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="M18" s="6"/>
-      <c r="N18" s="29" t="s">
-        <v>329</v>
+      <c r="N18" s="25" t="s">
+        <v>318</v>
       </c>
       <c r="O18" s="7"/>
       <c r="P18" s="7">
@@ -3928,8 +3929,8 @@
       </c>
       <c r="R18" s="7"/>
       <c r="S18" s="7"/>
-      <c r="T18" s="30" t="s">
-        <v>330</v>
+      <c r="T18" s="26" t="s">
+        <v>319</v>
       </c>
       <c r="U18" s="4"/>
       <c r="V18" s="4"/>
@@ -3997,20 +3998,20 @@
     </row>
     <row r="19" spans="1:61" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
-      <c r="B19" s="33" t="s">
-        <v>224</v>
-      </c>
-      <c r="C19" s="32" t="s">
+      <c r="B19" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="C19" s="28" t="s">
         <v>167</v>
       </c>
-      <c r="D19" s="32" t="s">
+      <c r="D19" s="28" t="s">
         <v>167</v>
       </c>
-      <c r="E19" s="33" t="str">
-        <f>SUBSTITUTE(C19,".","_P.",1)</f>
+      <c r="E19" s="29" t="str">
+        <f t="shared" si="0"/>
         <v>Window_NDC1_P.dwg</v>
       </c>
-      <c r="F19" s="32"/>
+      <c r="F19" s="28"/>
       <c r="G19" s="4" t="s">
         <v>46</v>
       </c>
@@ -4030,8 +4031,8 @@
         <v>49</v>
       </c>
       <c r="M19" s="6"/>
-      <c r="N19" s="29" t="s">
-        <v>329</v>
+      <c r="N19" s="25" t="s">
+        <v>318</v>
       </c>
       <c r="O19" s="7"/>
       <c r="P19" s="7">
@@ -4042,8 +4043,8 @@
       </c>
       <c r="R19" s="7"/>
       <c r="S19" s="7"/>
-      <c r="T19" s="30" t="s">
-        <v>330</v>
+      <c r="T19" s="26" t="s">
+        <v>319</v>
       </c>
       <c r="U19" s="9"/>
       <c r="V19" s="4"/>
@@ -4105,20 +4106,20 @@
     </row>
     <row r="20" spans="1:61" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
-      <c r="B20" s="33" t="s">
-        <v>225</v>
-      </c>
-      <c r="C20" s="32" t="s">
+      <c r="B20" s="29" t="s">
+        <v>221</v>
+      </c>
+      <c r="C20" s="28" t="s">
         <v>168</v>
       </c>
-      <c r="D20" s="32" t="s">
+      <c r="D20" s="28" t="s">
         <v>168</v>
       </c>
-      <c r="E20" s="33" t="str">
-        <f>SUBSTITUTE(C20,".","_P.",1)</f>
+      <c r="E20" s="29" t="str">
+        <f t="shared" si="0"/>
         <v>Window_NDC2_0_P.dwg</v>
       </c>
-      <c r="F20" s="32"/>
+      <c r="F20" s="28"/>
       <c r="G20" s="4" t="s">
         <v>46</v>
       </c>
@@ -4138,8 +4139,8 @@
         <v>54</v>
       </c>
       <c r="M20" s="6"/>
-      <c r="N20" s="29" t="s">
-        <v>329</v>
+      <c r="N20" s="25" t="s">
+        <v>318</v>
       </c>
       <c r="O20" s="7"/>
       <c r="P20" s="7">
@@ -4150,8 +4151,8 @@
       </c>
       <c r="R20" s="7"/>
       <c r="S20" s="7"/>
-      <c r="T20" s="30" t="s">
-        <v>330</v>
+      <c r="T20" s="26" t="s">
+        <v>319</v>
       </c>
       <c r="U20" s="9"/>
       <c r="V20" s="4"/>
@@ -4215,20 +4216,20 @@
     </row>
     <row r="21" spans="1:61" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
-      <c r="B21" s="33" t="s">
-        <v>226</v>
-      </c>
-      <c r="C21" s="32" t="s">
+      <c r="B21" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="C21" s="28" t="s">
         <v>169</v>
       </c>
-      <c r="D21" s="32" t="s">
+      <c r="D21" s="28" t="s">
         <v>169</v>
       </c>
-      <c r="E21" s="33" t="str">
-        <f>SUBSTITUTE(C21,".","_P.",1)</f>
+      <c r="E21" s="29" t="str">
+        <f t="shared" si="0"/>
         <v>Window_NDC2_1_P.dwg</v>
       </c>
-      <c r="F21" s="32"/>
+      <c r="F21" s="28"/>
       <c r="G21" s="4" t="s">
         <v>46</v>
       </c>
@@ -4248,8 +4249,8 @@
         <v>54</v>
       </c>
       <c r="M21" s="6"/>
-      <c r="N21" s="29" t="s">
-        <v>329</v>
+      <c r="N21" s="25" t="s">
+        <v>318</v>
       </c>
       <c r="O21" s="7"/>
       <c r="P21" s="7">
@@ -4260,8 +4261,8 @@
       </c>
       <c r="R21" s="7"/>
       <c r="S21" s="7"/>
-      <c r="T21" s="30" t="s">
-        <v>330</v>
+      <c r="T21" s="26" t="s">
+        <v>319</v>
       </c>
       <c r="U21" s="9"/>
       <c r="V21" s="4"/>
@@ -4327,20 +4328,20 @@
     </row>
     <row r="22" spans="1:61" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
-      <c r="B22" s="33" t="s">
-        <v>227</v>
-      </c>
-      <c r="C22" s="32" t="s">
+      <c r="B22" s="29" t="s">
+        <v>223</v>
+      </c>
+      <c r="C22" s="28" t="s">
         <v>170</v>
       </c>
-      <c r="D22" s="32" t="s">
+      <c r="D22" s="28" t="s">
         <v>170</v>
       </c>
-      <c r="E22" s="33" t="str">
-        <f>SUBSTITUTE(C22,".","_P.",1)</f>
+      <c r="E22" s="29" t="str">
+        <f t="shared" si="0"/>
         <v>Window_NDC3_P.dwg</v>
       </c>
-      <c r="F22" s="32"/>
+      <c r="F22" s="28"/>
       <c r="G22" s="4" t="s">
         <v>46</v>
       </c>
@@ -4360,8 +4361,8 @@
         <v>58</v>
       </c>
       <c r="M22" s="6"/>
-      <c r="N22" s="29" t="s">
-        <v>329</v>
+      <c r="N22" s="25" t="s">
+        <v>318</v>
       </c>
       <c r="O22" s="7"/>
       <c r="P22" s="7">
@@ -4372,8 +4373,8 @@
       </c>
       <c r="R22" s="7"/>
       <c r="S22" s="7"/>
-      <c r="T22" s="30" t="s">
-        <v>330</v>
+      <c r="T22" s="26" t="s">
+        <v>319</v>
       </c>
       <c r="U22" s="9"/>
       <c r="V22" s="4"/>
@@ -4435,20 +4436,20 @@
     </row>
     <row r="23" spans="1:61" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
-      <c r="B23" s="33" t="s">
-        <v>228</v>
-      </c>
-      <c r="C23" s="32" t="s">
+      <c r="B23" s="29" t="s">
+        <v>224</v>
+      </c>
+      <c r="C23" s="28" t="s">
         <v>171</v>
       </c>
-      <c r="D23" s="32" t="s">
+      <c r="D23" s="28" t="s">
         <v>171</v>
       </c>
-      <c r="E23" s="33" t="str">
-        <f>SUBSTITUTE(C23,".","_P.",1)</f>
+      <c r="E23" s="29" t="str">
+        <f t="shared" si="0"/>
         <v>Window_NDC4_P.dwg</v>
       </c>
-      <c r="F23" s="32"/>
+      <c r="F23" s="28"/>
       <c r="G23" s="4" t="s">
         <v>46</v>
       </c>
@@ -4468,8 +4469,8 @@
         <v>58</v>
       </c>
       <c r="M23" s="6"/>
-      <c r="N23" s="29" t="s">
-        <v>329</v>
+      <c r="N23" s="25" t="s">
+        <v>318</v>
       </c>
       <c r="O23" s="7"/>
       <c r="P23" s="7">
@@ -4480,8 +4481,8 @@
       </c>
       <c r="R23" s="7"/>
       <c r="S23" s="7"/>
-      <c r="T23" s="30" t="s">
-        <v>330</v>
+      <c r="T23" s="26" t="s">
+        <v>319</v>
       </c>
       <c r="U23" s="9"/>
       <c r="V23" s="4"/>
@@ -4547,20 +4548,20 @@
     </row>
     <row r="24" spans="1:61" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
-      <c r="B24" s="33" t="s">
-        <v>229</v>
-      </c>
-      <c r="C24" s="32" t="s">
+      <c r="B24" s="29" t="s">
+        <v>225</v>
+      </c>
+      <c r="C24" s="28" t="s">
         <v>172</v>
       </c>
-      <c r="D24" s="32" t="s">
+      <c r="D24" s="28" t="s">
         <v>172</v>
       </c>
-      <c r="E24" s="33" t="str">
-        <f>SUBSTITUTE(C24,".","_P.",1)</f>
+      <c r="E24" s="29" t="str">
+        <f t="shared" si="0"/>
         <v>Window_NDC5_P.dwg</v>
       </c>
-      <c r="F24" s="32"/>
+      <c r="F24" s="28"/>
       <c r="G24" s="4" t="s">
         <v>46</v>
       </c>
@@ -4580,8 +4581,8 @@
         <v>60</v>
       </c>
       <c r="M24" s="6"/>
-      <c r="N24" s="29" t="s">
-        <v>329</v>
+      <c r="N24" s="25" t="s">
+        <v>318</v>
       </c>
       <c r="O24" s="7"/>
       <c r="P24" s="7">
@@ -4592,8 +4593,8 @@
       </c>
       <c r="R24" s="7"/>
       <c r="S24" s="7"/>
-      <c r="T24" s="30" t="s">
-        <v>330</v>
+      <c r="T24" s="26" t="s">
+        <v>319</v>
       </c>
       <c r="U24" s="9"/>
       <c r="V24" s="4"/>
@@ -4659,20 +4660,20 @@
     </row>
     <row r="25" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
-      <c r="B25" s="33" t="s">
-        <v>230</v>
-      </c>
-      <c r="C25" s="32" t="s">
+      <c r="B25" s="29" t="s">
+        <v>226</v>
+      </c>
+      <c r="C25" s="28" t="s">
         <v>173</v>
       </c>
-      <c r="D25" s="32" t="s">
+      <c r="D25" s="28" t="s">
         <v>173</v>
       </c>
-      <c r="E25" s="33" t="str">
-        <f>SUBSTITUTE(C25,".","_P.",1)</f>
+      <c r="E25" s="29" t="str">
+        <f t="shared" si="0"/>
         <v>Window_NDC6_P.dwg</v>
       </c>
-      <c r="F25" s="32"/>
+      <c r="F25" s="28"/>
       <c r="G25" s="4" t="s">
         <v>46</v>
       </c>
@@ -4692,8 +4693,8 @@
         <v>58</v>
       </c>
       <c r="M25" s="6"/>
-      <c r="N25" s="29" t="s">
-        <v>329</v>
+      <c r="N25" s="25" t="s">
+        <v>318</v>
       </c>
       <c r="O25" s="7"/>
       <c r="P25" s="7">
@@ -4704,8 +4705,8 @@
       </c>
       <c r="R25" s="7"/>
       <c r="S25" s="7"/>
-      <c r="T25" s="30" t="s">
-        <v>330</v>
+      <c r="T25" s="26" t="s">
+        <v>319</v>
       </c>
       <c r="U25" s="9"/>
       <c r="V25" s="4"/>
@@ -4771,20 +4772,20 @@
     </row>
     <row r="26" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
-      <c r="B26" s="33" t="s">
-        <v>231</v>
-      </c>
-      <c r="C26" s="32" t="s">
+      <c r="B26" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="C26" s="28" t="s">
         <v>174</v>
       </c>
-      <c r="D26" s="32" t="s">
+      <c r="D26" s="28" t="s">
         <v>174</v>
       </c>
-      <c r="E26" s="33" t="str">
-        <f>SUBSTITUTE(C26,".","_P.",1)</f>
+      <c r="E26" s="29" t="str">
+        <f t="shared" si="0"/>
         <v>Window_NDC7_0_P.dwg</v>
       </c>
-      <c r="F26" s="32"/>
+      <c r="F26" s="28"/>
       <c r="G26" s="4" t="s">
         <v>46</v>
       </c>
@@ -4804,8 +4805,8 @@
         <v>63</v>
       </c>
       <c r="M26" s="6"/>
-      <c r="N26" s="29" t="s">
-        <v>329</v>
+      <c r="N26" s="25" t="s">
+        <v>318</v>
       </c>
       <c r="O26" s="7"/>
       <c r="P26" s="7">
@@ -4816,8 +4817,8 @@
       </c>
       <c r="R26" s="7"/>
       <c r="S26" s="7"/>
-      <c r="T26" s="30" t="s">
-        <v>330</v>
+      <c r="T26" s="26" t="s">
+        <v>319</v>
       </c>
       <c r="U26" s="9"/>
       <c r="V26" s="4"/>
@@ -4885,20 +4886,20 @@
     </row>
     <row r="27" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
-      <c r="B27" s="33" t="s">
-        <v>232</v>
-      </c>
-      <c r="C27" s="32" t="s">
+      <c r="B27" s="29" t="s">
+        <v>228</v>
+      </c>
+      <c r="C27" s="28" t="s">
         <v>175</v>
       </c>
-      <c r="D27" s="32" t="s">
+      <c r="D27" s="28" t="s">
         <v>175</v>
       </c>
-      <c r="E27" s="33" t="str">
-        <f>SUBSTITUTE(C27,".","_P.",1)</f>
+      <c r="E27" s="29" t="str">
+        <f t="shared" si="0"/>
         <v>Window_NDC7_1_P.dwg</v>
       </c>
-      <c r="F27" s="32"/>
+      <c r="F27" s="28"/>
       <c r="G27" s="4" t="s">
         <v>46</v>
       </c>
@@ -4918,8 +4919,8 @@
         <v>63</v>
       </c>
       <c r="M27" s="6"/>
-      <c r="N27" s="29" t="s">
-        <v>329</v>
+      <c r="N27" s="25" t="s">
+        <v>318</v>
       </c>
       <c r="O27" s="7"/>
       <c r="P27" s="7">
@@ -4930,8 +4931,8 @@
       </c>
       <c r="R27" s="7"/>
       <c r="S27" s="7"/>
-      <c r="T27" s="30" t="s">
-        <v>330</v>
+      <c r="T27" s="26" t="s">
+        <v>319</v>
       </c>
       <c r="U27" s="9"/>
       <c r="V27" s="4"/>
@@ -5001,20 +5002,20 @@
     </row>
     <row r="28" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
-      <c r="B28" s="33" t="s">
-        <v>233</v>
-      </c>
-      <c r="C28" s="32" t="s">
-        <v>176</v>
-      </c>
-      <c r="D28" s="32" t="s">
-        <v>176</v>
-      </c>
-      <c r="E28" s="33" t="str">
+      <c r="B28" s="29" t="s">
+        <v>324</v>
+      </c>
+      <c r="C28" s="28" t="s">
+        <v>325</v>
+      </c>
+      <c r="D28" s="28" t="s">
+        <v>325</v>
+      </c>
+      <c r="E28" s="29" t="str">
         <f>SUBSTITUTE(C28,".","_P.",1)</f>
-        <v>Window_NDC_8_P.dwg</v>
-      </c>
-      <c r="F28" s="32"/>
+        <v>Window_NDC8_P.dwg</v>
+      </c>
+      <c r="F28" s="28"/>
       <c r="G28" s="4" t="s">
         <v>46</v>
       </c>
@@ -5034,8 +5035,8 @@
         <v>58</v>
       </c>
       <c r="M28" s="6"/>
-      <c r="N28" s="29" t="s">
-        <v>329</v>
+      <c r="N28" s="25" t="s">
+        <v>318</v>
       </c>
       <c r="O28" s="7"/>
       <c r="P28" s="7">
@@ -5046,8 +5047,8 @@
       </c>
       <c r="R28" s="7"/>
       <c r="S28" s="7"/>
-      <c r="T28" s="30" t="s">
-        <v>330</v>
+      <c r="T28" s="26" t="s">
+        <v>319</v>
       </c>
       <c r="U28" s="4"/>
       <c r="V28" s="4"/>
@@ -5113,20 +5114,20 @@
     </row>
     <row r="29" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
-      <c r="B29" s="33" t="s">
-        <v>234</v>
-      </c>
-      <c r="C29" s="32" t="s">
-        <v>177</v>
-      </c>
-      <c r="D29" s="32" t="s">
-        <v>177</v>
-      </c>
-      <c r="E29" s="33" t="str">
-        <f>SUBSTITUTE(C29,".","_P.",1)</f>
+      <c r="B29" s="29" t="s">
+        <v>229</v>
+      </c>
+      <c r="C29" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="D29" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="E29" s="29" t="str">
+        <f t="shared" si="0"/>
         <v>Window_NDC9_0_P.dwg</v>
       </c>
-      <c r="F29" s="32"/>
+      <c r="F29" s="28"/>
       <c r="G29" s="4" t="s">
         <v>46</v>
       </c>
@@ -5146,8 +5147,8 @@
         <v>64</v>
       </c>
       <c r="M29" s="6"/>
-      <c r="N29" s="29" t="s">
-        <v>329</v>
+      <c r="N29" s="25" t="s">
+        <v>318</v>
       </c>
       <c r="O29" s="7"/>
       <c r="P29" s="7">
@@ -5158,8 +5159,8 @@
       </c>
       <c r="R29" s="7"/>
       <c r="S29" s="7"/>
-      <c r="T29" s="30" t="s">
-        <v>330</v>
+      <c r="T29" s="26" t="s">
+        <v>319</v>
       </c>
       <c r="U29" s="9"/>
       <c r="V29" s="4"/>
@@ -5229,20 +5230,20 @@
     </row>
     <row r="30" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
-      <c r="B30" s="33" t="s">
-        <v>235</v>
-      </c>
-      <c r="C30" s="32" t="s">
-        <v>178</v>
-      </c>
-      <c r="D30" s="32" t="s">
-        <v>178</v>
-      </c>
-      <c r="E30" s="33" t="str">
-        <f>SUBSTITUTE(C30,".","_P.",1)</f>
+      <c r="B30" s="29" t="s">
+        <v>230</v>
+      </c>
+      <c r="C30" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="D30" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="E30" s="29" t="str">
+        <f t="shared" si="0"/>
         <v>Window_NDC9_1_P.dwg</v>
       </c>
-      <c r="F30" s="32"/>
+      <c r="F30" s="28"/>
       <c r="G30" s="4" t="s">
         <v>46</v>
       </c>
@@ -5262,8 +5263,8 @@
         <v>64</v>
       </c>
       <c r="M30" s="6"/>
-      <c r="N30" s="29" t="s">
-        <v>329</v>
+      <c r="N30" s="25" t="s">
+        <v>318</v>
       </c>
       <c r="O30" s="7"/>
       <c r="P30" s="7">
@@ -5274,8 +5275,8 @@
       </c>
       <c r="R30" s="7"/>
       <c r="S30" s="7"/>
-      <c r="T30" s="30" t="s">
-        <v>330</v>
+      <c r="T30" s="26" t="s">
+        <v>319</v>
       </c>
       <c r="U30" s="9"/>
       <c r="V30" s="4"/>
@@ -5345,20 +5346,20 @@
     </row>
     <row r="31" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
-      <c r="B31" s="33" t="s">
-        <v>236</v>
-      </c>
-      <c r="C31" s="32" t="s">
-        <v>179</v>
-      </c>
-      <c r="D31" s="32" t="s">
-        <v>179</v>
-      </c>
-      <c r="E31" s="33" t="str">
-        <f>SUBSTITUTE(C31,".","_P.",1)</f>
+      <c r="B31" s="29" t="s">
+        <v>231</v>
+      </c>
+      <c r="C31" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="D31" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="E31" s="29" t="str">
+        <f t="shared" si="0"/>
         <v>Window_NDC9_2_P.dwg</v>
       </c>
-      <c r="F31" s="32"/>
+      <c r="F31" s="28"/>
       <c r="G31" s="4" t="s">
         <v>46</v>
       </c>
@@ -5378,8 +5379,8 @@
         <v>64</v>
       </c>
       <c r="M31" s="6"/>
-      <c r="N31" s="29" t="s">
-        <v>329</v>
+      <c r="N31" s="25" t="s">
+        <v>318</v>
       </c>
       <c r="O31" s="7"/>
       <c r="P31" s="7">
@@ -5390,8 +5391,8 @@
       </c>
       <c r="R31" s="7"/>
       <c r="S31" s="7"/>
-      <c r="T31" s="30" t="s">
-        <v>330</v>
+      <c r="T31" s="26" t="s">
+        <v>319</v>
       </c>
       <c r="U31" s="9"/>
       <c r="V31" s="4"/>
@@ -5461,20 +5462,20 @@
     </row>
     <row r="32" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
-      <c r="B32" s="33" t="s">
-        <v>237</v>
-      </c>
-      <c r="C32" s="32" t="s">
-        <v>180</v>
-      </c>
-      <c r="D32" s="32" t="s">
-        <v>180</v>
-      </c>
-      <c r="E32" s="33" t="str">
-        <f>SUBSTITUTE(C32,".","_P.",1)</f>
+      <c r="B32" s="29" t="s">
+        <v>232</v>
+      </c>
+      <c r="C32" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="D32" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="E32" s="29" t="str">
+        <f t="shared" si="0"/>
         <v>Window_NDZC1_P.dwg</v>
       </c>
-      <c r="F32" s="32"/>
+      <c r="F32" s="28"/>
       <c r="G32" s="4" t="s">
         <v>46</v>
       </c>
@@ -5494,8 +5495,8 @@
         <v>63</v>
       </c>
       <c r="M32" s="6"/>
-      <c r="N32" s="29" t="s">
-        <v>329</v>
+      <c r="N32" s="25" t="s">
+        <v>318</v>
       </c>
       <c r="O32" s="7"/>
       <c r="P32" s="7">
@@ -5506,8 +5507,8 @@
       </c>
       <c r="R32" s="7"/>
       <c r="S32" s="7"/>
-      <c r="T32" s="30" t="s">
-        <v>330</v>
+      <c r="T32" s="26" t="s">
+        <v>319</v>
       </c>
       <c r="U32" s="9"/>
       <c r="V32" s="4"/>
@@ -5581,20 +5582,20 @@
     </row>
     <row r="33" spans="1:61" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
-      <c r="B33" s="33" t="s">
-        <v>238</v>
-      </c>
-      <c r="C33" s="32" t="s">
-        <v>181</v>
-      </c>
-      <c r="D33" s="32" t="s">
-        <v>181</v>
-      </c>
-      <c r="E33" s="33" t="str">
-        <f>SUBSTITUTE(C33,".","_P.",1)</f>
+      <c r="B33" s="29" t="s">
+        <v>233</v>
+      </c>
+      <c r="C33" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="D33" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="E33" s="29" t="str">
+        <f t="shared" si="0"/>
         <v>Window_NDZC2_0_P.dwg</v>
       </c>
-      <c r="F33" s="32"/>
+      <c r="F33" s="28"/>
       <c r="G33" s="4" t="s">
         <v>46</v>
       </c>
@@ -5614,8 +5615,8 @@
         <v>66</v>
       </c>
       <c r="M33" s="6"/>
-      <c r="N33" s="29" t="s">
-        <v>329</v>
+      <c r="N33" s="25" t="s">
+        <v>318</v>
       </c>
       <c r="O33" s="7"/>
       <c r="P33" s="7">
@@ -5626,8 +5627,8 @@
       </c>
       <c r="R33" s="7"/>
       <c r="S33" s="7"/>
-      <c r="T33" s="30" t="s">
-        <v>330</v>
+      <c r="T33" s="26" t="s">
+        <v>319</v>
       </c>
       <c r="U33" s="9"/>
       <c r="V33" s="4"/>
@@ -5701,20 +5702,20 @@
     </row>
     <row r="34" spans="1:61" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
-      <c r="B34" s="33" t="s">
-        <v>239</v>
-      </c>
-      <c r="C34" s="32" t="s">
-        <v>182</v>
-      </c>
-      <c r="D34" s="32" t="s">
-        <v>182</v>
-      </c>
-      <c r="E34" s="33" t="str">
-        <f>SUBSTITUTE(C34,".","_P.",1)</f>
+      <c r="B34" s="29" t="s">
+        <v>234</v>
+      </c>
+      <c r="C34" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="D34" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="E34" s="29" t="str">
+        <f t="shared" ref="E34:E67" si="1">SUBSTITUTE(C34,".","_P.",1)</f>
         <v>Window_NDZC2_1_P.dwg</v>
       </c>
-      <c r="F34" s="32"/>
+      <c r="F34" s="28"/>
       <c r="G34" s="4" t="s">
         <v>46</v>
       </c>
@@ -5734,8 +5735,8 @@
         <v>66</v>
       </c>
       <c r="M34" s="6"/>
-      <c r="N34" s="29" t="s">
-        <v>329</v>
+      <c r="N34" s="25" t="s">
+        <v>318</v>
       </c>
       <c r="O34" s="7"/>
       <c r="P34" s="7">
@@ -5746,8 +5747,8 @@
       </c>
       <c r="R34" s="7"/>
       <c r="S34" s="7"/>
-      <c r="T34" s="30" t="s">
-        <v>330</v>
+      <c r="T34" s="26" t="s">
+        <v>319</v>
       </c>
       <c r="U34" s="9"/>
       <c r="V34" s="4"/>
@@ -5821,20 +5822,20 @@
     </row>
     <row r="35" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
-      <c r="B35" s="33" t="s">
-        <v>240</v>
-      </c>
-      <c r="C35" s="32" t="s">
-        <v>183</v>
-      </c>
-      <c r="D35" s="32" t="s">
-        <v>183</v>
-      </c>
-      <c r="E35" s="33" t="str">
-        <f>SUBSTITUTE(C35,".","_P.",1)</f>
+      <c r="B35" s="29" t="s">
+        <v>235</v>
+      </c>
+      <c r="C35" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="D35" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="E35" s="29" t="str">
+        <f t="shared" si="1"/>
         <v>Window_NDC10_P.dwg</v>
       </c>
-      <c r="F35" s="32"/>
+      <c r="F35" s="28"/>
       <c r="G35" s="4" t="s">
         <v>46</v>
       </c>
@@ -5854,8 +5855,8 @@
         <v>68</v>
       </c>
       <c r="M35" s="6"/>
-      <c r="N35" s="29" t="s">
-        <v>329</v>
+      <c r="N35" s="25" t="s">
+        <v>318</v>
       </c>
       <c r="O35" s="7"/>
       <c r="P35" s="7">
@@ -5866,8 +5867,8 @@
       </c>
       <c r="R35" s="7"/>
       <c r="S35" s="7"/>
-      <c r="T35" s="30" t="s">
-        <v>330</v>
+      <c r="T35" s="26" t="s">
+        <v>319</v>
       </c>
       <c r="U35" s="4"/>
       <c r="V35" s="4"/>
@@ -5935,20 +5936,20 @@
     </row>
     <row r="36" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
-      <c r="B36" s="33" t="s">
+      <c r="B36" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="C36" s="32" t="s">
-        <v>184</v>
-      </c>
-      <c r="D36" s="32" t="s">
-        <v>184</v>
-      </c>
-      <c r="E36" s="33" t="str">
-        <f>SUBSTITUTE(C36,".","_P.",1)</f>
+      <c r="C36" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="D36" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="E36" s="29" t="str">
+        <f t="shared" si="1"/>
         <v>Window_WC1_P.dwg</v>
       </c>
-      <c r="F36" s="32"/>
+      <c r="F36" s="28"/>
       <c r="G36" s="4" t="s">
         <v>46</v>
       </c>
@@ -5968,8 +5969,8 @@
         <v>71</v>
       </c>
       <c r="M36" s="6"/>
-      <c r="N36" s="29" t="s">
-        <v>329</v>
+      <c r="N36" s="25" t="s">
+        <v>318</v>
       </c>
       <c r="O36" s="7"/>
       <c r="P36" s="7">
@@ -5980,8 +5981,8 @@
       </c>
       <c r="R36" s="7"/>
       <c r="S36" s="7"/>
-      <c r="T36" s="30" t="s">
-        <v>330</v>
+      <c r="T36" s="26" t="s">
+        <v>319</v>
       </c>
       <c r="U36" s="4"/>
       <c r="V36" s="4"/>
@@ -6043,20 +6044,20 @@
     </row>
     <row r="37" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
-      <c r="B37" s="33" t="s">
-        <v>241</v>
-      </c>
-      <c r="C37" s="32" t="s">
-        <v>185</v>
-      </c>
-      <c r="D37" s="32" t="s">
-        <v>185</v>
-      </c>
-      <c r="E37" s="33" t="str">
-        <f>SUBSTITUTE(C37,".","_P.",1)</f>
+      <c r="B37" s="29" t="s">
+        <v>236</v>
+      </c>
+      <c r="C37" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="D37" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="E37" s="29" t="str">
+        <f t="shared" si="1"/>
         <v>Window_WC2_P.dwg</v>
       </c>
-      <c r="F37" s="32"/>
+      <c r="F37" s="28"/>
       <c r="G37" s="4" t="s">
         <v>46</v>
       </c>
@@ -6076,8 +6077,8 @@
         <v>72</v>
       </c>
       <c r="M37" s="6"/>
-      <c r="N37" s="29" t="s">
-        <v>329</v>
+      <c r="N37" s="25" t="s">
+        <v>318</v>
       </c>
       <c r="O37" s="7"/>
       <c r="P37" s="7">
@@ -6088,8 +6089,8 @@
       </c>
       <c r="R37" s="7"/>
       <c r="S37" s="7"/>
-      <c r="T37" s="30" t="s">
-        <v>330</v>
+      <c r="T37" s="26" t="s">
+        <v>319</v>
       </c>
       <c r="U37" s="4"/>
       <c r="V37" s="4"/>
@@ -6155,20 +6156,20 @@
     </row>
     <row r="38" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
-      <c r="B38" s="33" t="s">
-        <v>242</v>
-      </c>
-      <c r="C38" s="32" t="s">
-        <v>186</v>
-      </c>
-      <c r="D38" s="32" t="s">
-        <v>186</v>
-      </c>
-      <c r="E38" s="33" t="str">
-        <f>SUBSTITUTE(C38,".","_P.",1)</f>
+      <c r="B38" s="29" t="s">
+        <v>237</v>
+      </c>
+      <c r="C38" s="28" t="s">
+        <v>185</v>
+      </c>
+      <c r="D38" s="28" t="s">
+        <v>185</v>
+      </c>
+      <c r="E38" s="29" t="str">
+        <f t="shared" si="1"/>
         <v>Window_WC3_P.dwg</v>
       </c>
-      <c r="F38" s="32"/>
+      <c r="F38" s="28"/>
       <c r="G38" s="4" t="s">
         <v>46</v>
       </c>
@@ -6188,8 +6189,8 @@
         <v>49</v>
       </c>
       <c r="M38" s="6"/>
-      <c r="N38" s="29" t="s">
-        <v>329</v>
+      <c r="N38" s="25" t="s">
+        <v>318</v>
       </c>
       <c r="O38" s="7"/>
       <c r="P38" s="7">
@@ -6200,8 +6201,8 @@
       </c>
       <c r="R38" s="7"/>
       <c r="S38" s="7"/>
-      <c r="T38" s="30" t="s">
-        <v>330</v>
+      <c r="T38" s="26" t="s">
+        <v>319</v>
       </c>
       <c r="U38" s="4"/>
       <c r="V38" s="4"/>
@@ -6263,20 +6264,20 @@
     </row>
     <row r="39" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
-      <c r="B39" s="33" t="s">
-        <v>243</v>
-      </c>
-      <c r="C39" s="32" t="s">
-        <v>187</v>
-      </c>
-      <c r="D39" s="32" t="s">
-        <v>187</v>
-      </c>
-      <c r="E39" s="33" t="str">
-        <f>SUBSTITUTE(C39,".","_P.",1)</f>
+      <c r="B39" s="29" t="s">
+        <v>238</v>
+      </c>
+      <c r="C39" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="D39" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="E39" s="29" t="str">
+        <f t="shared" si="1"/>
         <v>Window_WC4_P.dwg</v>
       </c>
-      <c r="F39" s="32"/>
+      <c r="F39" s="28"/>
       <c r="G39" s="4" t="s">
         <v>46</v>
       </c>
@@ -6296,8 +6297,8 @@
         <v>60</v>
       </c>
       <c r="M39" s="6"/>
-      <c r="N39" s="29" t="s">
-        <v>329</v>
+      <c r="N39" s="25" t="s">
+        <v>318</v>
       </c>
       <c r="O39" s="7"/>
       <c r="P39" s="7">
@@ -6308,8 +6309,8 @@
       </c>
       <c r="R39" s="7"/>
       <c r="S39" s="7"/>
-      <c r="T39" s="30" t="s">
-        <v>330</v>
+      <c r="T39" s="26" t="s">
+        <v>319</v>
       </c>
       <c r="U39" s="4"/>
       <c r="V39" s="4"/>
@@ -6375,20 +6376,20 @@
     </row>
     <row r="40" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
-      <c r="B40" s="33" t="s">
-        <v>244</v>
-      </c>
-      <c r="C40" s="32" t="s">
-        <v>188</v>
-      </c>
-      <c r="D40" s="32" t="s">
-        <v>188</v>
-      </c>
-      <c r="E40" s="33" t="str">
-        <f>SUBSTITUTE(C40,".","_P.",1)</f>
+      <c r="B40" s="29" t="s">
+        <v>239</v>
+      </c>
+      <c r="C40" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="D40" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="E40" s="29" t="str">
+        <f t="shared" si="1"/>
         <v>Window_WC5_0_P.dwg</v>
       </c>
-      <c r="F40" s="32"/>
+      <c r="F40" s="28"/>
       <c r="G40" s="4" t="s">
         <v>46</v>
       </c>
@@ -6408,8 +6409,8 @@
         <v>54</v>
       </c>
       <c r="M40" s="6"/>
-      <c r="N40" s="29" t="s">
-        <v>329</v>
+      <c r="N40" s="25" t="s">
+        <v>318</v>
       </c>
       <c r="O40" s="7"/>
       <c r="P40" s="7">
@@ -6420,8 +6421,8 @@
       </c>
       <c r="R40" s="7"/>
       <c r="S40" s="7"/>
-      <c r="T40" s="30" t="s">
-        <v>330</v>
+      <c r="T40" s="26" t="s">
+        <v>319</v>
       </c>
       <c r="U40" s="9"/>
       <c r="V40" s="4"/>
@@ -6485,20 +6486,20 @@
     </row>
     <row r="41" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
-      <c r="B41" s="33" t="s">
-        <v>245</v>
-      </c>
-      <c r="C41" s="32" t="s">
-        <v>189</v>
-      </c>
-      <c r="D41" s="32" t="s">
-        <v>189</v>
-      </c>
-      <c r="E41" s="33" t="str">
-        <f>SUBSTITUTE(C41,".","_P.",1)</f>
+      <c r="B41" s="29" t="s">
+        <v>240</v>
+      </c>
+      <c r="C41" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="D41" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="E41" s="29" t="str">
+        <f t="shared" si="1"/>
         <v>Window_WC5_1_P.dwg</v>
       </c>
-      <c r="F41" s="32"/>
+      <c r="F41" s="28"/>
       <c r="G41" s="4" t="s">
         <v>46</v>
       </c>
@@ -6518,8 +6519,8 @@
         <v>54</v>
       </c>
       <c r="M41" s="6"/>
-      <c r="N41" s="29" t="s">
-        <v>329</v>
+      <c r="N41" s="25" t="s">
+        <v>318</v>
       </c>
       <c r="O41" s="8"/>
       <c r="P41" s="7">
@@ -6530,8 +6531,8 @@
       </c>
       <c r="R41" s="7"/>
       <c r="S41" s="7"/>
-      <c r="T41" s="30" t="s">
-        <v>330</v>
+      <c r="T41" s="26" t="s">
+        <v>319</v>
       </c>
       <c r="U41" s="9"/>
       <c r="V41" s="4"/>
@@ -6597,20 +6598,20 @@
     </row>
     <row r="42" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
-      <c r="B42" s="33" t="s">
-        <v>246</v>
-      </c>
-      <c r="C42" s="32" t="s">
-        <v>190</v>
-      </c>
-      <c r="D42" s="32" t="s">
-        <v>190</v>
-      </c>
-      <c r="E42" s="33" t="str">
-        <f>SUBSTITUTE(C42,".","_P.",1)</f>
+      <c r="B42" s="29" t="s">
+        <v>241</v>
+      </c>
+      <c r="C42" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="D42" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="E42" s="29" t="str">
+        <f t="shared" si="1"/>
         <v>Window_WC6_P.dwg</v>
       </c>
-      <c r="F42" s="32"/>
+      <c r="F42" s="28"/>
       <c r="G42" s="4" t="s">
         <v>46</v>
       </c>
@@ -6630,8 +6631,8 @@
         <v>73</v>
       </c>
       <c r="M42" s="6"/>
-      <c r="N42" s="29" t="s">
-        <v>329</v>
+      <c r="N42" s="25" t="s">
+        <v>318</v>
       </c>
       <c r="O42" s="7"/>
       <c r="P42" s="7">
@@ -6642,8 +6643,8 @@
       </c>
       <c r="R42" s="7"/>
       <c r="S42" s="7"/>
-      <c r="T42" s="30" t="s">
-        <v>330</v>
+      <c r="T42" s="26" t="s">
+        <v>319</v>
       </c>
       <c r="U42" s="4"/>
       <c r="V42" s="4"/>
@@ -6705,20 +6706,20 @@
     </row>
     <row r="43" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
-      <c r="B43" s="33" t="s">
-        <v>247</v>
-      </c>
-      <c r="C43" s="32" t="s">
-        <v>191</v>
-      </c>
-      <c r="D43" s="32" t="s">
-        <v>191</v>
-      </c>
-      <c r="E43" s="33" t="str">
-        <f>SUBSTITUTE(C43,".","_P.",1)</f>
+      <c r="B43" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="C43" s="28" t="s">
+        <v>190</v>
+      </c>
+      <c r="D43" s="28" t="s">
+        <v>190</v>
+      </c>
+      <c r="E43" s="29" t="str">
+        <f t="shared" si="1"/>
         <v>Window_WC7_P.dwg</v>
       </c>
-      <c r="F43" s="32"/>
+      <c r="F43" s="28"/>
       <c r="G43" s="4" t="s">
         <v>46</v>
       </c>
@@ -6738,8 +6739,8 @@
         <v>73</v>
       </c>
       <c r="M43" s="6"/>
-      <c r="N43" s="29" t="s">
-        <v>329</v>
+      <c r="N43" s="25" t="s">
+        <v>318</v>
       </c>
       <c r="O43" s="8"/>
       <c r="P43" s="7">
@@ -6750,8 +6751,8 @@
       </c>
       <c r="R43" s="7"/>
       <c r="S43" s="7"/>
-      <c r="T43" s="30" t="s">
-        <v>330</v>
+      <c r="T43" s="26" t="s">
+        <v>319</v>
       </c>
       <c r="U43" s="9"/>
       <c r="V43" s="4"/>
@@ -6817,20 +6818,20 @@
     </row>
     <row r="44" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
-      <c r="B44" s="33" t="s">
-        <v>248</v>
-      </c>
-      <c r="C44" s="32" t="s">
-        <v>192</v>
-      </c>
-      <c r="D44" s="32" t="s">
-        <v>192</v>
-      </c>
-      <c r="E44" s="33" t="str">
-        <f>SUBSTITUTE(C44,".","_P.",1)</f>
+      <c r="B44" s="29" t="s">
+        <v>243</v>
+      </c>
+      <c r="C44" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="D44" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="E44" s="29" t="str">
+        <f t="shared" si="1"/>
         <v>Window_WC8_0_P.dwg</v>
       </c>
-      <c r="F44" s="32"/>
+      <c r="F44" s="28"/>
       <c r="G44" s="4" t="s">
         <v>46</v>
       </c>
@@ -6850,8 +6851,8 @@
         <v>63</v>
       </c>
       <c r="M44" s="6"/>
-      <c r="N44" s="29" t="s">
-        <v>329</v>
+      <c r="N44" s="25" t="s">
+        <v>318</v>
       </c>
       <c r="O44" s="7"/>
       <c r="P44" s="7">
@@ -6862,8 +6863,8 @@
       </c>
       <c r="R44" s="7"/>
       <c r="S44" s="7"/>
-      <c r="T44" s="30" t="s">
-        <v>330</v>
+      <c r="T44" s="26" t="s">
+        <v>319</v>
       </c>
       <c r="U44" s="9"/>
       <c r="V44" s="4"/>
@@ -6931,20 +6932,20 @@
     </row>
     <row r="45" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
-      <c r="B45" s="33" t="s">
-        <v>249</v>
-      </c>
-      <c r="C45" s="32" t="s">
-        <v>193</v>
-      </c>
-      <c r="D45" s="32" t="s">
-        <v>193</v>
-      </c>
-      <c r="E45" s="33" t="str">
-        <f>SUBSTITUTE(C45,".","_P.",1)</f>
+      <c r="B45" s="29" t="s">
+        <v>244</v>
+      </c>
+      <c r="C45" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="D45" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="E45" s="29" t="str">
+        <f t="shared" si="1"/>
         <v>Window_WC8_1_P.dwg</v>
       </c>
-      <c r="F45" s="32"/>
+      <c r="F45" s="28"/>
       <c r="G45" s="4" t="s">
         <v>46</v>
       </c>
@@ -6964,8 +6965,8 @@
         <v>63</v>
       </c>
       <c r="M45" s="6"/>
-      <c r="N45" s="29" t="s">
-        <v>329</v>
+      <c r="N45" s="25" t="s">
+        <v>318</v>
       </c>
       <c r="O45" s="8"/>
       <c r="P45" s="7">
@@ -6976,8 +6977,8 @@
       </c>
       <c r="R45" s="7"/>
       <c r="S45" s="7"/>
-      <c r="T45" s="30" t="s">
-        <v>330</v>
+      <c r="T45" s="26" t="s">
+        <v>319</v>
       </c>
       <c r="U45" s="9"/>
       <c r="V45" s="4"/>
@@ -7047,20 +7048,20 @@
     </row>
     <row r="46" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
-      <c r="B46" s="33" t="s">
-        <v>250</v>
-      </c>
-      <c r="C46" s="32" t="s">
-        <v>194</v>
-      </c>
-      <c r="D46" s="32" t="s">
-        <v>194</v>
-      </c>
-      <c r="E46" s="33" t="str">
-        <f>SUBSTITUTE(C46,".","_P.",1)</f>
+      <c r="B46" s="29" t="s">
+        <v>245</v>
+      </c>
+      <c r="C46" s="28" t="s">
+        <v>193</v>
+      </c>
+      <c r="D46" s="28" t="s">
+        <v>193</v>
+      </c>
+      <c r="E46" s="29" t="str">
+        <f t="shared" si="1"/>
         <v>Window_WC9_P.dwg</v>
       </c>
-      <c r="F46" s="32"/>
+      <c r="F46" s="28"/>
       <c r="G46" s="4" t="s">
         <v>46</v>
       </c>
@@ -7080,8 +7081,8 @@
         <v>58</v>
       </c>
       <c r="M46" s="6"/>
-      <c r="N46" s="29" t="s">
-        <v>329</v>
+      <c r="N46" s="25" t="s">
+        <v>318</v>
       </c>
       <c r="O46" s="7"/>
       <c r="P46" s="7">
@@ -7092,8 +7093,8 @@
       </c>
       <c r="R46" s="7"/>
       <c r="S46" s="7"/>
-      <c r="T46" s="30" t="s">
-        <v>330</v>
+      <c r="T46" s="26" t="s">
+        <v>319</v>
       </c>
       <c r="U46" s="4"/>
       <c r="V46" s="4"/>
@@ -7159,20 +7160,20 @@
     </row>
     <row r="47" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
-      <c r="B47" s="33" t="s">
-        <v>251</v>
-      </c>
-      <c r="C47" s="32" t="s">
-        <v>195</v>
-      </c>
-      <c r="D47" s="32" t="s">
-        <v>195</v>
-      </c>
-      <c r="E47" s="33" t="str">
-        <f>SUBSTITUTE(C47,".","_P.",1)</f>
+      <c r="B47" s="29" t="s">
+        <v>246</v>
+      </c>
+      <c r="C47" s="28" t="s">
+        <v>194</v>
+      </c>
+      <c r="D47" s="28" t="s">
+        <v>194</v>
+      </c>
+      <c r="E47" s="29" t="str">
+        <f t="shared" si="1"/>
         <v>Window_WC10_P.dwg</v>
       </c>
-      <c r="F47" s="32"/>
+      <c r="F47" s="28"/>
       <c r="G47" s="4" t="s">
         <v>46</v>
       </c>
@@ -7192,8 +7193,8 @@
         <v>58</v>
       </c>
       <c r="M47" s="6"/>
-      <c r="N47" s="29" t="s">
-        <v>329</v>
+      <c r="N47" s="25" t="s">
+        <v>318</v>
       </c>
       <c r="O47" s="8"/>
       <c r="P47" s="7">
@@ -7204,8 +7205,8 @@
       </c>
       <c r="R47" s="7"/>
       <c r="S47" s="7"/>
-      <c r="T47" s="30" t="s">
-        <v>330</v>
+      <c r="T47" s="26" t="s">
+        <v>319</v>
       </c>
       <c r="U47" s="9"/>
       <c r="V47" s="4"/>
@@ -7275,20 +7276,20 @@
     </row>
     <row r="48" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
-      <c r="B48" s="33" t="s">
-        <v>252</v>
-      </c>
-      <c r="C48" s="32" t="s">
-        <v>196</v>
-      </c>
-      <c r="D48" s="32" t="s">
-        <v>196</v>
-      </c>
-      <c r="E48" s="33" t="str">
-        <f>SUBSTITUTE(C48,".","_P.",1)</f>
+      <c r="B48" s="29" t="s">
+        <v>247</v>
+      </c>
+      <c r="C48" s="28" t="s">
+        <v>195</v>
+      </c>
+      <c r="D48" s="28" t="s">
+        <v>195</v>
+      </c>
+      <c r="E48" s="29" t="str">
+        <f t="shared" si="1"/>
         <v>Window_WZC1_P.dwg</v>
       </c>
-      <c r="F48" s="32"/>
+      <c r="F48" s="28"/>
       <c r="G48" s="4" t="s">
         <v>46</v>
       </c>
@@ -7308,8 +7309,8 @@
         <v>63</v>
       </c>
       <c r="M48" s="6"/>
-      <c r="N48" s="29" t="s">
-        <v>329</v>
+      <c r="N48" s="25" t="s">
+        <v>318</v>
       </c>
       <c r="O48" s="8"/>
       <c r="P48" s="7">
@@ -7320,8 +7321,8 @@
       </c>
       <c r="R48" s="7"/>
       <c r="S48" s="7"/>
-      <c r="T48" s="30" t="s">
-        <v>330</v>
+      <c r="T48" s="26" t="s">
+        <v>319</v>
       </c>
       <c r="U48" s="9"/>
       <c r="V48" s="4"/>
@@ -7395,20 +7396,20 @@
     </row>
     <row r="49" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
-      <c r="B49" s="33" t="s">
-        <v>253</v>
-      </c>
-      <c r="C49" s="32" t="s">
-        <v>197</v>
-      </c>
-      <c r="D49" s="32" t="s">
-        <v>197</v>
-      </c>
-      <c r="E49" s="33" t="str">
-        <f>SUBSTITUTE(C49,".","_P.",1)</f>
+      <c r="B49" s="29" t="s">
+        <v>248</v>
+      </c>
+      <c r="C49" s="28" t="s">
+        <v>196</v>
+      </c>
+      <c r="D49" s="28" t="s">
+        <v>196</v>
+      </c>
+      <c r="E49" s="29" t="str">
+        <f t="shared" si="1"/>
         <v>Window_WZC2_P.dwg</v>
       </c>
-      <c r="F49" s="32"/>
+      <c r="F49" s="28"/>
       <c r="G49" s="4" t="s">
         <v>46</v>
       </c>
@@ -7428,8 +7429,8 @@
         <v>58</v>
       </c>
       <c r="M49" s="6"/>
-      <c r="N49" s="29" t="s">
-        <v>329</v>
+      <c r="N49" s="25" t="s">
+        <v>318</v>
       </c>
       <c r="O49" s="8"/>
       <c r="P49" s="7">
@@ -7440,8 +7441,8 @@
       </c>
       <c r="R49" s="7"/>
       <c r="S49" s="7"/>
-      <c r="T49" s="30" t="s">
-        <v>330</v>
+      <c r="T49" s="26" t="s">
+        <v>319</v>
       </c>
       <c r="U49" s="9"/>
       <c r="V49" s="4"/>
@@ -7515,20 +7516,20 @@
     </row>
     <row r="50" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
-      <c r="B50" s="33" t="s">
-        <v>254</v>
-      </c>
-      <c r="C50" s="32" t="s">
-        <v>198</v>
-      </c>
-      <c r="D50" s="32" t="s">
-        <v>198</v>
-      </c>
-      <c r="E50" s="33" t="str">
-        <f>SUBSTITUTE(C50,".","_P.",1)</f>
+      <c r="B50" s="29" t="s">
+        <v>249</v>
+      </c>
+      <c r="C50" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="D50" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="E50" s="29" t="str">
+        <f t="shared" si="1"/>
         <v>Window_WC11_P.dwg</v>
       </c>
-      <c r="F50" s="32"/>
+      <c r="F50" s="28"/>
       <c r="G50" s="4" t="s">
         <v>46</v>
       </c>
@@ -7548,8 +7549,8 @@
         <v>68</v>
       </c>
       <c r="M50" s="6"/>
-      <c r="N50" s="29" t="s">
-        <v>329</v>
+      <c r="N50" s="25" t="s">
+        <v>318</v>
       </c>
       <c r="O50" s="7"/>
       <c r="P50" s="7">
@@ -7560,8 +7561,8 @@
       </c>
       <c r="R50" s="7"/>
       <c r="S50" s="7"/>
-      <c r="T50" s="30" t="s">
-        <v>330</v>
+      <c r="T50" s="26" t="s">
+        <v>319</v>
       </c>
       <c r="U50" s="4"/>
       <c r="V50" s="4"/>
@@ -7629,20 +7630,20 @@
     </row>
     <row r="51" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
-      <c r="B51" s="33" t="s">
-        <v>255</v>
-      </c>
-      <c r="C51" s="32" t="s">
-        <v>199</v>
-      </c>
-      <c r="D51" s="32" t="s">
-        <v>199</v>
-      </c>
-      <c r="E51" s="33" t="str">
-        <f>SUBSTITUTE(C51,".","_P.",1)</f>
+      <c r="B51" s="29" t="s">
+        <v>250</v>
+      </c>
+      <c r="C51" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="D51" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="E51" s="29" t="str">
+        <f t="shared" si="1"/>
         <v>Door_TC1_P.dwg</v>
       </c>
-      <c r="F51" s="32"/>
+      <c r="F51" s="28"/>
       <c r="G51" s="4" t="s">
         <v>46</v>
       </c>
@@ -7662,8 +7663,8 @@
         <v>75</v>
       </c>
       <c r="M51" s="6"/>
-      <c r="N51" s="29" t="s">
-        <v>329</v>
+      <c r="N51" s="25" t="s">
+        <v>318</v>
       </c>
       <c r="O51" s="7"/>
       <c r="P51" s="7">
@@ -7674,8 +7675,8 @@
       </c>
       <c r="R51" s="7"/>
       <c r="S51" s="7"/>
-      <c r="T51" s="30" t="s">
-        <v>330</v>
+      <c r="T51" s="26" t="s">
+        <v>319</v>
       </c>
       <c r="U51" s="4"/>
       <c r="V51" s="4"/>
@@ -7737,20 +7738,20 @@
     </row>
     <row r="52" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
-      <c r="B52" s="33" t="s">
-        <v>256</v>
-      </c>
-      <c r="C52" s="32" t="s">
-        <v>200</v>
-      </c>
-      <c r="D52" s="32" t="s">
-        <v>200</v>
-      </c>
-      <c r="E52" s="33" t="str">
-        <f>SUBSTITUTE(C52,".","_P.",1)</f>
+      <c r="B52" s="29" t="s">
+        <v>251</v>
+      </c>
+      <c r="C52" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="D52" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="E52" s="29" t="str">
+        <f t="shared" si="1"/>
         <v>Door_TC2_P.dwg</v>
       </c>
-      <c r="F52" s="32"/>
+      <c r="F52" s="28"/>
       <c r="G52" s="4" t="s">
         <v>46</v>
       </c>
@@ -7770,8 +7771,8 @@
         <v>75</v>
       </c>
       <c r="M52" s="6"/>
-      <c r="N52" s="29" t="s">
-        <v>329</v>
+      <c r="N52" s="25" t="s">
+        <v>318</v>
       </c>
       <c r="O52" s="7"/>
       <c r="P52" s="7">
@@ -7782,8 +7783,8 @@
       </c>
       <c r="R52" s="7"/>
       <c r="S52" s="7"/>
-      <c r="T52" s="30" t="s">
-        <v>330</v>
+      <c r="T52" s="26" t="s">
+        <v>319</v>
       </c>
       <c r="U52" s="4"/>
       <c r="V52" s="4"/>
@@ -7849,20 +7850,20 @@
     </row>
     <row r="53" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
-      <c r="B53" s="33" t="s">
-        <v>257</v>
-      </c>
-      <c r="C53" s="32" t="s">
-        <v>201</v>
-      </c>
-      <c r="D53" s="32" t="s">
-        <v>201</v>
-      </c>
-      <c r="E53" s="33" t="str">
-        <f>SUBSTITUTE(C53,".","_P.",1)</f>
+      <c r="B53" s="29" t="s">
+        <v>252</v>
+      </c>
+      <c r="C53" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="D53" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="E53" s="29" t="str">
+        <f t="shared" si="1"/>
         <v>Door_TLM1_P.dwg</v>
       </c>
-      <c r="F53" s="32"/>
+      <c r="F53" s="28"/>
       <c r="G53" s="4" t="s">
         <v>46</v>
       </c>
@@ -7882,8 +7883,8 @@
         <v>76</v>
       </c>
       <c r="M53" s="6"/>
-      <c r="N53" s="29" t="s">
-        <v>329</v>
+      <c r="N53" s="25" t="s">
+        <v>318</v>
       </c>
       <c r="O53" s="7"/>
       <c r="P53" s="7">
@@ -7894,8 +7895,8 @@
       </c>
       <c r="R53" s="7"/>
       <c r="S53" s="7"/>
-      <c r="T53" s="30" t="s">
-        <v>330</v>
+      <c r="T53" s="26" t="s">
+        <v>319</v>
       </c>
       <c r="U53" s="4"/>
       <c r="V53" s="4"/>
@@ -7957,20 +7958,20 @@
     </row>
     <row r="54" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
-      <c r="B54" s="33" t="s">
-        <v>258</v>
-      </c>
-      <c r="C54" s="32" t="s">
-        <v>202</v>
-      </c>
-      <c r="D54" s="32" t="s">
-        <v>202</v>
-      </c>
-      <c r="E54" s="33" t="str">
-        <f>SUBSTITUTE(C54,".","_P.",1)</f>
+      <c r="B54" s="29" t="s">
+        <v>326</v>
+      </c>
+      <c r="C54" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="D54" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="E54" s="29" t="str">
+        <f t="shared" si="1"/>
         <v>Door_TLM2_P.dwg</v>
       </c>
-      <c r="F54" s="32"/>
+      <c r="F54" s="28"/>
       <c r="G54" s="4" t="s">
         <v>46</v>
       </c>
@@ -7984,28 +7985,28 @@
         <v>74</v>
       </c>
       <c r="K54" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L54" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M54" s="6"/>
-      <c r="N54" s="29" t="s">
-        <v>329</v>
+      <c r="N54" s="25" t="s">
+        <v>318</v>
       </c>
       <c r="O54" s="7"/>
       <c r="P54" s="7">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="Q54" s="7">
-        <v>2700</v>
+        <v>3600</v>
       </c>
       <c r="R54" s="7"/>
       <c r="S54" s="7"/>
-      <c r="T54" s="30" t="s">
-        <v>330</v>
-      </c>
-      <c r="U54" s="9"/>
+      <c r="T54" s="26" t="s">
+        <v>319</v>
+      </c>
+      <c r="U54" s="4"/>
       <c r="V54" s="4"/>
       <c r="W54" s="4"/>
       <c r="X54" s="4"/>
@@ -8014,18 +8015,16 @@
         <v>50</v>
       </c>
       <c r="AA54" s="7" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="AB54" s="7"/>
       <c r="AC54" s="7"/>
       <c r="AD54" s="7"/>
       <c r="AE54" s="7"/>
       <c r="AF54" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="AG54" s="9" t="s">
-        <v>55</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="AG54" s="4"/>
       <c r="AH54" s="4"/>
       <c r="AI54" s="4"/>
       <c r="AJ54" s="4"/>
@@ -8067,20 +8066,20 @@
     </row>
     <row r="55" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
-      <c r="B55" s="33" t="s">
-        <v>259</v>
-      </c>
-      <c r="C55" s="32" t="s">
-        <v>203</v>
-      </c>
-      <c r="D55" s="32" t="s">
-        <v>203</v>
-      </c>
-      <c r="E55" s="33" t="str">
-        <f>SUBSTITUTE(C55,".","_P.",1)</f>
+      <c r="B55" s="29" t="s">
+        <v>327</v>
+      </c>
+      <c r="C55" s="28" t="s">
+        <v>202</v>
+      </c>
+      <c r="D55" s="28" t="s">
+        <v>202</v>
+      </c>
+      <c r="E55" s="29" t="str">
+        <f t="shared" si="1"/>
         <v>Door_TLM3_P.dwg</v>
       </c>
-      <c r="F55" s="32"/>
+      <c r="F55" s="28"/>
       <c r="G55" s="4" t="s">
         <v>46</v>
       </c>
@@ -8094,28 +8093,28 @@
         <v>74</v>
       </c>
       <c r="K55" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L55" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M55" s="6"/>
-      <c r="N55" s="29" t="s">
-        <v>329</v>
+      <c r="N55" s="25" t="s">
+        <v>318</v>
       </c>
       <c r="O55" s="7"/>
       <c r="P55" s="7">
-        <v>2500</v>
+        <v>3600</v>
       </c>
       <c r="Q55" s="7">
-        <v>2700</v>
+        <v>4800</v>
       </c>
       <c r="R55" s="7"/>
       <c r="S55" s="7"/>
-      <c r="T55" s="30" t="s">
-        <v>330</v>
-      </c>
-      <c r="U55" s="4"/>
+      <c r="T55" s="26" t="s">
+        <v>319</v>
+      </c>
+      <c r="U55" s="7"/>
       <c r="V55" s="4"/>
       <c r="W55" s="4"/>
       <c r="X55" s="4"/>
@@ -8124,16 +8123,18 @@
         <v>50</v>
       </c>
       <c r="AA55" s="7" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="AB55" s="7"/>
       <c r="AC55" s="7"/>
       <c r="AD55" s="7"/>
       <c r="AE55" s="7"/>
       <c r="AF55" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="AG55" s="4"/>
+        <v>50</v>
+      </c>
+      <c r="AG55" s="7" t="s">
+        <v>80</v>
+      </c>
       <c r="AH55" s="4"/>
       <c r="AI55" s="4"/>
       <c r="AJ55" s="4"/>
@@ -8175,20 +8176,20 @@
     </row>
     <row r="56" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
-      <c r="B56" s="33" t="s">
-        <v>260</v>
-      </c>
-      <c r="C56" s="32" t="s">
-        <v>204</v>
-      </c>
-      <c r="D56" s="32" t="s">
-        <v>204</v>
-      </c>
-      <c r="E56" s="33" t="str">
-        <f>SUBSTITUTE(C56,".","_P.",1)</f>
+      <c r="B56" s="29" t="s">
+        <v>328</v>
+      </c>
+      <c r="C56" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="D56" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="E56" s="29" t="str">
+        <f t="shared" si="1"/>
         <v>Door_TLM4_P.dwg</v>
       </c>
-      <c r="F56" s="32"/>
+      <c r="F56" s="28"/>
       <c r="G56" s="4" t="s">
         <v>46</v>
       </c>
@@ -8202,26 +8203,26 @@
         <v>74</v>
       </c>
       <c r="K56" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L56" s="4" t="s">
         <v>78</v>
       </c>
       <c r="M56" s="6"/>
-      <c r="N56" s="29" t="s">
-        <v>329</v>
+      <c r="N56" s="25" t="s">
+        <v>318</v>
       </c>
       <c r="O56" s="7"/>
       <c r="P56" s="7">
-        <v>2400</v>
+        <v>3600</v>
       </c>
       <c r="Q56" s="7">
-        <v>3600</v>
+        <v>4800</v>
       </c>
       <c r="R56" s="7"/>
       <c r="S56" s="7"/>
-      <c r="T56" s="30" t="s">
-        <v>330</v>
+      <c r="T56" s="26" t="s">
+        <v>319</v>
       </c>
       <c r="U56" s="4"/>
       <c r="V56" s="4"/>
@@ -8232,7 +8233,7 @@
         <v>50</v>
       </c>
       <c r="AA56" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB56" s="7"/>
       <c r="AC56" s="7"/>
@@ -8283,20 +8284,20 @@
     </row>
     <row r="57" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
-      <c r="B57" s="33" t="s">
-        <v>261</v>
-      </c>
-      <c r="C57" s="32" t="s">
-        <v>205</v>
-      </c>
-      <c r="D57" s="32" t="s">
-        <v>205</v>
-      </c>
-      <c r="E57" s="33" t="str">
+      <c r="B57" s="29" t="s">
+        <v>329</v>
+      </c>
+      <c r="C57" s="28" t="s">
+        <v>332</v>
+      </c>
+      <c r="D57" s="28" t="s">
+        <v>332</v>
+      </c>
+      <c r="E57" s="29" t="str">
         <f>SUBSTITUTE(C57,".","_P.",1)</f>
-        <v>Door_TLM5_P.dwg</v>
-      </c>
-      <c r="F57" s="32"/>
+        <v>Door_TSTLM1_P.dwg</v>
+      </c>
+      <c r="F57" s="28"/>
       <c r="G57" s="4" t="s">
         <v>46</v>
       </c>
@@ -8310,28 +8311,28 @@
         <v>74</v>
       </c>
       <c r="K57" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L57" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M57" s="6"/>
-      <c r="N57" s="29" t="s">
-        <v>329</v>
+      <c r="N57" s="25" t="s">
+        <v>318</v>
       </c>
       <c r="O57" s="7"/>
       <c r="P57" s="7">
-        <v>3600</v>
+        <v>2500</v>
       </c>
       <c r="Q57" s="7">
-        <v>4800</v>
+        <v>2700</v>
       </c>
       <c r="R57" s="7"/>
       <c r="S57" s="7"/>
-      <c r="T57" s="30" t="s">
-        <v>330</v>
-      </c>
-      <c r="U57" s="7"/>
+      <c r="T57" s="26" t="s">
+        <v>319</v>
+      </c>
+      <c r="U57" s="9"/>
       <c r="V57" s="4"/>
       <c r="W57" s="4"/>
       <c r="X57" s="4"/>
@@ -8340,7 +8341,7 @@
         <v>50</v>
       </c>
       <c r="AA57" s="7" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="AB57" s="7"/>
       <c r="AC57" s="7"/>
@@ -8349,8 +8350,8 @@
       <c r="AF57" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="AG57" s="7" t="s">
-        <v>80</v>
+      <c r="AG57" s="9" t="s">
+        <v>55</v>
       </c>
       <c r="AH57" s="4"/>
       <c r="AI57" s="4"/>
@@ -8393,20 +8394,20 @@
     </row>
     <row r="58" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
-      <c r="B58" s="33" t="s">
-        <v>262</v>
-      </c>
-      <c r="C58" s="32" t="s">
-        <v>206</v>
-      </c>
-      <c r="D58" s="32" t="s">
-        <v>206</v>
-      </c>
-      <c r="E58" s="33" t="str">
+      <c r="B58" s="29" t="s">
+        <v>330</v>
+      </c>
+      <c r="C58" s="28" t="s">
+        <v>333</v>
+      </c>
+      <c r="D58" s="28" t="s">
+        <v>333</v>
+      </c>
+      <c r="E58" s="29" t="str">
         <f>SUBSTITUTE(C58,".","_P.",1)</f>
-        <v>Door_TLM6_P.dwg</v>
-      </c>
-      <c r="F58" s="32"/>
+        <v>Door_TSTLM2_P.dwg</v>
+      </c>
+      <c r="F58" s="28"/>
       <c r="G58" s="4" t="s">
         <v>46</v>
       </c>
@@ -8420,26 +8421,26 @@
         <v>74</v>
       </c>
       <c r="K58" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L58" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M58" s="6"/>
-      <c r="N58" s="29" t="s">
-        <v>329</v>
+      <c r="N58" s="25" t="s">
+        <v>318</v>
       </c>
       <c r="O58" s="7"/>
       <c r="P58" s="7">
-        <v>3600</v>
+        <v>2500</v>
       </c>
       <c r="Q58" s="7">
-        <v>4800</v>
+        <v>2700</v>
       </c>
       <c r="R58" s="7"/>
       <c r="S58" s="7"/>
-      <c r="T58" s="30" t="s">
-        <v>330</v>
+      <c r="T58" s="26" t="s">
+        <v>319</v>
       </c>
       <c r="U58" s="4"/>
       <c r="V58" s="4"/>
@@ -8450,7 +8451,7 @@
         <v>50</v>
       </c>
       <c r="AA58" s="7" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="AB58" s="7"/>
       <c r="AC58" s="7"/>
@@ -8501,20 +8502,20 @@
     </row>
     <row r="59" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
-      <c r="B59" s="33" t="s">
-        <v>263</v>
-      </c>
-      <c r="C59" s="32" t="s">
-        <v>207</v>
-      </c>
-      <c r="D59" s="32" t="s">
-        <v>207</v>
-      </c>
-      <c r="E59" s="33" t="str">
-        <f>SUBSTITUTE(C59,".","_P.",1)</f>
-        <v>Door_TLM7_P.dwg</v>
-      </c>
-      <c r="F59" s="32"/>
+      <c r="B59" s="29" t="s">
+        <v>331</v>
+      </c>
+      <c r="C59" s="28" t="s">
+        <v>334</v>
+      </c>
+      <c r="D59" s="28" t="s">
+        <v>334</v>
+      </c>
+      <c r="E59" s="29" t="str">
+        <f t="shared" si="1"/>
+        <v>Door_TSTLM3_P.dwg</v>
+      </c>
+      <c r="F59" s="28"/>
       <c r="G59" s="4" t="s">
         <v>46</v>
       </c>
@@ -8534,8 +8535,8 @@
         <v>81</v>
       </c>
       <c r="M59" s="6"/>
-      <c r="N59" s="29" t="s">
-        <v>329</v>
+      <c r="N59" s="25" t="s">
+        <v>318</v>
       </c>
       <c r="O59" s="7"/>
       <c r="P59" s="7">
@@ -8546,8 +8547,8 @@
       </c>
       <c r="R59" s="7"/>
       <c r="S59" s="7"/>
-      <c r="T59" s="30" t="s">
-        <v>330</v>
+      <c r="T59" s="26" t="s">
+        <v>319</v>
       </c>
       <c r="U59" s="4"/>
       <c r="V59" s="4"/>
@@ -8609,20 +8610,20 @@
     </row>
     <row r="60" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
-      <c r="B60" s="33" t="s">
-        <v>264</v>
-      </c>
-      <c r="C60" s="32" t="s">
-        <v>208</v>
-      </c>
-      <c r="D60" s="32" t="s">
-        <v>208</v>
-      </c>
-      <c r="E60" s="33" t="str">
-        <f>SUBSTITUTE(C60,".","_P.",1)</f>
+      <c r="B60" s="29" t="s">
+        <v>253</v>
+      </c>
+      <c r="C60" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="D60" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="E60" s="29" t="str">
+        <f t="shared" si="1"/>
         <v>Door_WM1_P.dwg</v>
       </c>
-      <c r="F60" s="32"/>
+      <c r="F60" s="28"/>
       <c r="G60" s="4" t="s">
         <v>46</v>
       </c>
@@ -8642,8 +8643,8 @@
         <v>82</v>
       </c>
       <c r="M60" s="6"/>
-      <c r="N60" s="29" t="s">
-        <v>329</v>
+      <c r="N60" s="25" t="s">
+        <v>318</v>
       </c>
       <c r="O60" s="7"/>
       <c r="P60" s="7">
@@ -8654,8 +8655,8 @@
       </c>
       <c r="R60" s="7"/>
       <c r="S60" s="7"/>
-      <c r="T60" s="30" t="s">
-        <v>330</v>
+      <c r="T60" s="26" t="s">
+        <v>319</v>
       </c>
       <c r="U60" s="4"/>
       <c r="V60" s="4"/>
@@ -8717,20 +8718,20 @@
     </row>
     <row r="61" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
-      <c r="B61" s="33" t="s">
-        <v>265</v>
-      </c>
-      <c r="C61" s="32" t="s">
-        <v>209</v>
-      </c>
-      <c r="D61" s="32" t="s">
-        <v>209</v>
-      </c>
-      <c r="E61" s="33" t="str">
-        <f>SUBSTITUTE(C61,".","_P.",1)</f>
+      <c r="B61" s="29" t="s">
+        <v>254</v>
+      </c>
+      <c r="C61" s="28" t="s">
+        <v>205</v>
+      </c>
+      <c r="D61" s="28" t="s">
+        <v>205</v>
+      </c>
+      <c r="E61" s="29" t="str">
+        <f t="shared" si="1"/>
         <v>Door_WM2_P.dwg</v>
       </c>
-      <c r="F61" s="32"/>
+      <c r="F61" s="28"/>
       <c r="G61" s="4" t="s">
         <v>46</v>
       </c>
@@ -8750,8 +8751,8 @@
         <v>83</v>
       </c>
       <c r="M61" s="6"/>
-      <c r="N61" s="29" t="s">
-        <v>329</v>
+      <c r="N61" s="25" t="s">
+        <v>318</v>
       </c>
       <c r="O61" s="7"/>
       <c r="P61" s="7">
@@ -8762,8 +8763,8 @@
       </c>
       <c r="R61" s="7"/>
       <c r="S61" s="7"/>
-      <c r="T61" s="30" t="s">
-        <v>330</v>
+      <c r="T61" s="26" t="s">
+        <v>319</v>
       </c>
       <c r="U61" s="4"/>
       <c r="V61" s="4"/>
@@ -8827,20 +8828,20 @@
     </row>
     <row r="62" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
-      <c r="B62" s="33" t="s">
-        <v>266</v>
-      </c>
-      <c r="C62" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="D62" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="E62" s="33" t="str">
-        <f>SUBSTITUTE(C62,".","_P.",1)</f>
+      <c r="B62" s="29" t="s">
+        <v>255</v>
+      </c>
+      <c r="C62" s="28" t="s">
+        <v>206</v>
+      </c>
+      <c r="D62" s="28" t="s">
+        <v>206</v>
+      </c>
+      <c r="E62" s="29" t="str">
+        <f t="shared" si="1"/>
         <v>Door_WM3_P.dwg</v>
       </c>
-      <c r="F62" s="32"/>
+      <c r="F62" s="28"/>
       <c r="G62" s="4" t="s">
         <v>46</v>
       </c>
@@ -8860,8 +8861,8 @@
         <v>86</v>
       </c>
       <c r="M62" s="6"/>
-      <c r="N62" s="29" t="s">
-        <v>329</v>
+      <c r="N62" s="25" t="s">
+        <v>318</v>
       </c>
       <c r="O62" s="7"/>
       <c r="P62" s="7">
@@ -8872,8 +8873,8 @@
       </c>
       <c r="R62" s="7"/>
       <c r="S62" s="7"/>
-      <c r="T62" s="30" t="s">
-        <v>330</v>
+      <c r="T62" s="26" t="s">
+        <v>319</v>
       </c>
       <c r="U62" s="4"/>
       <c r="V62" s="4"/>
@@ -8935,20 +8936,20 @@
     </row>
     <row r="63" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
-      <c r="B63" s="33" t="s">
-        <v>267</v>
-      </c>
-      <c r="C63" s="32" t="s">
-        <v>211</v>
-      </c>
-      <c r="D63" s="32" t="s">
-        <v>211</v>
-      </c>
-      <c r="E63" s="33" t="str">
-        <f>SUBSTITUTE(C63,".","_P.",1)</f>
+      <c r="B63" s="29" t="s">
+        <v>256</v>
+      </c>
+      <c r="C63" s="28" t="s">
+        <v>207</v>
+      </c>
+      <c r="D63" s="28" t="s">
+        <v>207</v>
+      </c>
+      <c r="E63" s="29" t="str">
+        <f t="shared" si="1"/>
         <v>Door_WM4_0_P.dwg</v>
       </c>
-      <c r="F63" s="32"/>
+      <c r="F63" s="28"/>
       <c r="G63" s="4" t="s">
         <v>46</v>
       </c>
@@ -8968,8 +8969,8 @@
         <v>87</v>
       </c>
       <c r="M63" s="6"/>
-      <c r="N63" s="29" t="s">
-        <v>329</v>
+      <c r="N63" s="25" t="s">
+        <v>318</v>
       </c>
       <c r="O63" s="7"/>
       <c r="P63" s="7">
@@ -8980,8 +8981,8 @@
       </c>
       <c r="R63" s="7"/>
       <c r="S63" s="7"/>
-      <c r="T63" s="30" t="s">
-        <v>330</v>
+      <c r="T63" s="26" t="s">
+        <v>319</v>
       </c>
       <c r="U63" s="9"/>
       <c r="V63" s="4"/>
@@ -9045,20 +9046,20 @@
     </row>
     <row r="64" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
-      <c r="B64" s="33" t="s">
-        <v>268</v>
-      </c>
-      <c r="C64" s="32" t="s">
-        <v>212</v>
-      </c>
-      <c r="D64" s="32" t="s">
-        <v>212</v>
-      </c>
-      <c r="E64" s="33" t="str">
-        <f>SUBSTITUTE(C64,".","_P.",1)</f>
+      <c r="B64" s="29" t="s">
+        <v>257</v>
+      </c>
+      <c r="C64" s="28" t="s">
+        <v>208</v>
+      </c>
+      <c r="D64" s="28" t="s">
+        <v>208</v>
+      </c>
+      <c r="E64" s="29" t="str">
+        <f t="shared" si="1"/>
         <v>Door_WM4_1_P.dwg</v>
       </c>
-      <c r="F64" s="32"/>
+      <c r="F64" s="28"/>
       <c r="G64" s="4" t="s">
         <v>46</v>
       </c>
@@ -9078,8 +9079,8 @@
         <v>87</v>
       </c>
       <c r="M64" s="6"/>
-      <c r="N64" s="29" t="s">
-        <v>329</v>
+      <c r="N64" s="25" t="s">
+        <v>318</v>
       </c>
       <c r="O64" s="7"/>
       <c r="P64" s="7">
@@ -9090,8 +9091,8 @@
       </c>
       <c r="R64" s="7"/>
       <c r="S64" s="7"/>
-      <c r="T64" s="30" t="s">
-        <v>330</v>
+      <c r="T64" s="26" t="s">
+        <v>319</v>
       </c>
       <c r="U64" s="9"/>
       <c r="V64" s="4"/>
@@ -9157,20 +9158,20 @@
     </row>
     <row r="65" spans="1:61" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
-      <c r="B65" s="33" t="s">
-        <v>269</v>
-      </c>
-      <c r="C65" s="32" t="s">
-        <v>213</v>
-      </c>
-      <c r="D65" s="32" t="s">
-        <v>213</v>
-      </c>
-      <c r="E65" s="33" t="str">
-        <f>SUBSTITUTE(C65,".","_P.",1)</f>
+      <c r="B65" s="29" t="s">
+        <v>258</v>
+      </c>
+      <c r="C65" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="D65" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="E65" s="29" t="str">
+        <f t="shared" si="1"/>
         <v>Door_WLC1_P.dwg</v>
       </c>
-      <c r="F65" s="32"/>
+      <c r="F65" s="28"/>
       <c r="G65" s="4" t="s">
         <v>46</v>
       </c>
@@ -9190,8 +9191,8 @@
         <v>88</v>
       </c>
       <c r="M65" s="6"/>
-      <c r="N65" s="29" t="s">
-        <v>329</v>
+      <c r="N65" s="25" t="s">
+        <v>318</v>
       </c>
       <c r="O65" s="7"/>
       <c r="P65" s="7">
@@ -9202,8 +9203,8 @@
       </c>
       <c r="R65" s="7"/>
       <c r="S65" s="7"/>
-      <c r="T65" s="30" t="s">
-        <v>330</v>
+      <c r="T65" s="26" t="s">
+        <v>319</v>
       </c>
       <c r="U65" s="9"/>
       <c r="V65" s="4"/>
@@ -9275,20 +9276,20 @@
     </row>
     <row r="66" spans="1:61" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
-      <c r="B66" s="33" t="s">
-        <v>270</v>
-      </c>
-      <c r="C66" s="32" t="s">
-        <v>214</v>
-      </c>
-      <c r="D66" s="32" t="s">
-        <v>214</v>
-      </c>
-      <c r="E66" s="33" t="str">
-        <f>SUBSTITUTE(C66,".","_P.",1)</f>
+      <c r="B66" s="29" t="s">
+        <v>259</v>
+      </c>
+      <c r="C66" s="28" t="s">
+        <v>210</v>
+      </c>
+      <c r="D66" s="28" t="s">
+        <v>210</v>
+      </c>
+      <c r="E66" s="29" t="str">
+        <f t="shared" si="1"/>
         <v>Door_WLC2_P.dwg</v>
       </c>
-      <c r="F66" s="32"/>
+      <c r="F66" s="28"/>
       <c r="G66" s="4" t="s">
         <v>46</v>
       </c>
@@ -9308,8 +9309,8 @@
         <v>91</v>
       </c>
       <c r="M66" s="6"/>
-      <c r="N66" s="29" t="s">
-        <v>329</v>
+      <c r="N66" s="25" t="s">
+        <v>318</v>
       </c>
       <c r="O66" s="7"/>
       <c r="P66" s="7">
@@ -9320,8 +9321,8 @@
       </c>
       <c r="R66" s="7"/>
       <c r="S66" s="7"/>
-      <c r="T66" s="30" t="s">
-        <v>330</v>
+      <c r="T66" s="26" t="s">
+        <v>319</v>
       </c>
       <c r="U66" s="4"/>
       <c r="V66" s="4"/>
@@ -9385,20 +9386,20 @@
     </row>
     <row r="67" spans="1:61" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
-      <c r="B67" s="33" t="s">
-        <v>271</v>
-      </c>
-      <c r="C67" s="32" t="s">
-        <v>215</v>
-      </c>
-      <c r="D67" s="32" t="s">
-        <v>215</v>
-      </c>
-      <c r="E67" s="33" t="str">
-        <f>SUBSTITUTE(C67,".","_P.",1)</f>
+      <c r="B67" s="29" t="s">
+        <v>260</v>
+      </c>
+      <c r="C67" s="28" t="s">
+        <v>211</v>
+      </c>
+      <c r="D67" s="28" t="s">
+        <v>211</v>
+      </c>
+      <c r="E67" s="29" t="str">
+        <f t="shared" si="1"/>
         <v>Door_WLC3_P.dwg</v>
       </c>
-      <c r="F67" s="32"/>
+      <c r="F67" s="28"/>
       <c r="G67" s="4" t="s">
         <v>46</v>
       </c>
@@ -9418,8 +9419,8 @@
         <v>94</v>
       </c>
       <c r="M67" s="6"/>
-      <c r="N67" s="29" t="s">
-        <v>329</v>
+      <c r="N67" s="25" t="s">
+        <v>318</v>
       </c>
       <c r="O67" s="7"/>
       <c r="P67" s="7">
@@ -9430,8 +9431,8 @@
       </c>
       <c r="R67" s="7"/>
       <c r="S67" s="7"/>
-      <c r="T67" s="30" t="s">
-        <v>330</v>
+      <c r="T67" s="26" t="s">
+        <v>319</v>
       </c>
       <c r="U67" s="4"/>
       <c r="V67" s="4"/>
@@ -9501,11 +9502,11 @@
     </row>
     <row r="68" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A68" s="11"/>
-      <c r="B68" s="35"/>
-      <c r="C68" s="35"/>
-      <c r="D68" s="35"/>
-      <c r="E68" s="35"/>
-      <c r="F68" s="35"/>
+      <c r="B68" s="31"/>
+      <c r="C68" s="31"/>
+      <c r="D68" s="31"/>
+      <c r="E68" s="31"/>
+      <c r="F68" s="31"/>
       <c r="G68" s="11"/>
       <c r="H68" s="11"/>
       <c r="I68" s="11"/>
@@ -9564,11 +9565,11 @@
     </row>
     <row r="69" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A69" s="11"/>
-      <c r="B69" s="35"/>
-      <c r="C69" s="35"/>
-      <c r="D69" s="35"/>
-      <c r="E69" s="35"/>
-      <c r="F69" s="35"/>
+      <c r="B69" s="31"/>
+      <c r="C69" s="31"/>
+      <c r="D69" s="31"/>
+      <c r="E69" s="31"/>
+      <c r="F69" s="31"/>
       <c r="G69" s="11"/>
       <c r="H69" s="11"/>
       <c r="I69" s="11"/>
@@ -9627,11 +9628,11 @@
     </row>
     <row r="70" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A70" s="11"/>
-      <c r="B70" s="35"/>
-      <c r="C70" s="35"/>
-      <c r="D70" s="35"/>
-      <c r="E70" s="35"/>
-      <c r="F70" s="35"/>
+      <c r="B70" s="31"/>
+      <c r="C70" s="31"/>
+      <c r="D70" s="31"/>
+      <c r="E70" s="31"/>
+      <c r="F70" s="31"/>
       <c r="G70" s="11"/>
       <c r="H70" s="11"/>
       <c r="I70" s="11"/>
@@ -9696,10 +9697,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
@@ -9709,9 +9710,9 @@
     <col min="2" max="2" width="21" style="23" customWidth="1"/>
     <col min="3" max="3" width="22.77734375" style="23" customWidth="1"/>
     <col min="4" max="4" width="8.6640625" customWidth="1"/>
-    <col min="5" max="5" width="7.77734375" style="40" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" style="40" customWidth="1"/>
-    <col min="7" max="7" width="8.21875" style="40" customWidth="1"/>
+    <col min="5" max="5" width="7.77734375" style="36" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" style="36" customWidth="1"/>
+    <col min="7" max="7" width="8.21875" style="36" customWidth="1"/>
     <col min="8" max="10" width="8.88671875" style="22"/>
   </cols>
   <sheetData>
@@ -9719,10 +9720,10 @@
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="33" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="16" t="s">
@@ -9731,40 +9732,40 @@
       <c r="E1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="F1" s="39" t="s">
-        <v>334</v>
+      <c r="F1" s="35" t="s">
+        <v>323</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="H1" s="16" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="I1" s="16" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="J1" s="16" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="24">
         <v>1</v>
       </c>
-      <c r="B2" s="38" t="s">
-        <v>277</v>
-      </c>
-      <c r="C2" s="38" t="s">
-        <v>276</v>
+      <c r="B2" s="34" t="s">
+        <v>266</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>265</v>
       </c>
       <c r="D2" s="17">
         <v>1</v>
       </c>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="35" t="s">
         <v>107</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>52</v>
@@ -9783,22 +9784,22 @@
       <c r="A3" s="24">
         <v>2</v>
       </c>
-      <c r="B3" s="38" t="s">
-        <v>278</v>
-      </c>
-      <c r="C3" s="38" t="s">
+      <c r="B3" s="34" t="s">
+        <v>267</v>
+      </c>
+      <c r="C3" s="34" t="s">
         <v>111</v>
       </c>
       <c r="D3" s="17">
         <v>1</v>
       </c>
-      <c r="E3" s="39" t="s">
+      <c r="E3" s="35" t="s">
         <v>107</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="G3" s="39" t="s">
+        <v>302</v>
+      </c>
+      <c r="G3" s="35" t="s">
         <v>107</v>
       </c>
       <c r="H3" s="22">
@@ -9815,22 +9816,22 @@
       <c r="A4" s="24">
         <v>3</v>
       </c>
-      <c r="B4" s="38" t="s">
-        <v>302</v>
-      </c>
-      <c r="C4" s="38" t="s">
-        <v>303</v>
+      <c r="B4" s="34" t="s">
+        <v>291</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>292</v>
       </c>
       <c r="D4" s="17">
         <v>1</v>
       </c>
-      <c r="E4" s="39" t="s">
+      <c r="E4" s="35" t="s">
         <v>107</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="G4" s="39" t="s">
+        <v>302</v>
+      </c>
+      <c r="G4" s="35" t="s">
         <v>108</v>
       </c>
       <c r="H4" s="22">
@@ -9847,20 +9848,20 @@
       <c r="A5" s="24">
         <v>4</v>
       </c>
-      <c r="B5" s="38" t="s">
-        <v>279</v>
-      </c>
-      <c r="C5" s="38" t="s">
+      <c r="B5" s="34" t="s">
+        <v>268</v>
+      </c>
+      <c r="C5" s="34" t="s">
         <v>112</v>
       </c>
       <c r="D5" s="17">
         <v>1</v>
       </c>
-      <c r="E5" s="39" t="s">
+      <c r="E5" s="35" t="s">
         <v>108</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>52</v>
@@ -9879,22 +9880,22 @@
       <c r="A6" s="24">
         <v>5</v>
       </c>
-      <c r="B6" s="38" t="s">
-        <v>280</v>
-      </c>
-      <c r="C6" s="38" t="s">
+      <c r="B6" s="34" t="s">
+        <v>269</v>
+      </c>
+      <c r="C6" s="34" t="s">
         <v>113</v>
       </c>
       <c r="D6" s="17">
         <v>1</v>
       </c>
-      <c r="E6" s="39" t="s">
+      <c r="E6" s="35" t="s">
         <v>108</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="G6" s="39" t="s">
+        <v>302</v>
+      </c>
+      <c r="G6" s="35" t="s">
         <v>107</v>
       </c>
       <c r="H6" s="22">
@@ -9911,22 +9912,22 @@
       <c r="A7" s="24">
         <v>6</v>
       </c>
-      <c r="B7" s="38" t="s">
-        <v>281</v>
-      </c>
-      <c r="C7" s="38" t="s">
+      <c r="B7" s="34" t="s">
+        <v>270</v>
+      </c>
+      <c r="C7" s="34" t="s">
         <v>114</v>
       </c>
       <c r="D7" s="17">
         <v>1</v>
       </c>
-      <c r="E7" s="39" t="s">
+      <c r="E7" s="35" t="s">
         <v>109</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="G7" s="39" t="s">
+        <v>302</v>
+      </c>
+      <c r="G7" s="35" t="s">
         <v>108</v>
       </c>
       <c r="H7" s="22">
@@ -9943,20 +9944,20 @@
       <c r="A8" s="24">
         <v>7</v>
       </c>
-      <c r="B8" s="38" t="s">
-        <v>282</v>
-      </c>
-      <c r="C8" s="38" t="s">
+      <c r="B8" s="34" t="s">
+        <v>271</v>
+      </c>
+      <c r="C8" s="34" t="s">
         <v>115</v>
       </c>
       <c r="D8" s="17">
         <v>2</v>
       </c>
-      <c r="E8" s="39" t="s">
+      <c r="E8" s="35" t="s">
         <v>107</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>52</v>
@@ -9975,22 +9976,22 @@
       <c r="A9" s="24">
         <v>8</v>
       </c>
-      <c r="B9" s="38" t="s">
-        <v>283</v>
-      </c>
-      <c r="C9" s="38" t="s">
+      <c r="B9" s="34" t="s">
+        <v>272</v>
+      </c>
+      <c r="C9" s="34" t="s">
         <v>116</v>
       </c>
       <c r="D9" s="17">
         <v>2</v>
       </c>
-      <c r="E9" s="39" t="s">
+      <c r="E9" s="35" t="s">
         <v>107</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="G9" s="39" t="s">
+        <v>302</v>
+      </c>
+      <c r="G9" s="35" t="s">
         <v>107</v>
       </c>
       <c r="H9" s="22">
@@ -10007,23 +10008,23 @@
       <c r="A10" s="24">
         <v>9</v>
       </c>
-      <c r="B10" s="38" t="s">
-        <v>307</v>
-      </c>
-      <c r="C10" s="38" t="s">
-        <v>308</v>
+      <c r="B10" s="34" t="s">
+        <v>296</v>
+      </c>
+      <c r="C10" s="34" t="s">
+        <v>297</v>
       </c>
       <c r="D10" s="17">
         <v>2</v>
       </c>
-      <c r="E10" s="39" t="s">
+      <c r="E10" s="35" t="s">
         <v>107</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="G10" s="39" t="s">
-        <v>309</v>
+        <v>302</v>
+      </c>
+      <c r="G10" s="35" t="s">
+        <v>298</v>
       </c>
       <c r="H10" s="22">
         <v>1300</v>
@@ -10039,20 +10040,20 @@
       <c r="A11" s="24">
         <v>10</v>
       </c>
-      <c r="B11" s="38" t="s">
-        <v>284</v>
-      </c>
-      <c r="C11" s="38" t="s">
+      <c r="B11" s="34" t="s">
+        <v>273</v>
+      </c>
+      <c r="C11" s="34" t="s">
         <v>117</v>
       </c>
       <c r="D11" s="17">
         <v>2</v>
       </c>
-      <c r="E11" s="39" t="s">
+      <c r="E11" s="35" t="s">
         <v>110</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>52</v>
@@ -10071,22 +10072,22 @@
       <c r="A12" s="24">
         <v>11</v>
       </c>
-      <c r="B12" s="38" t="s">
-        <v>285</v>
-      </c>
-      <c r="C12" s="38" t="s">
+      <c r="B12" s="34" t="s">
+        <v>274</v>
+      </c>
+      <c r="C12" s="34" t="s">
         <v>118</v>
       </c>
       <c r="D12" s="17">
         <v>2</v>
       </c>
-      <c r="E12" s="39" t="s">
+      <c r="E12" s="35" t="s">
         <v>108</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="G12" s="39" t="s">
+        <v>302</v>
+      </c>
+      <c r="G12" s="35" t="s">
         <v>107</v>
       </c>
       <c r="H12" s="22">
@@ -10103,22 +10104,22 @@
       <c r="A13" s="24">
         <v>12</v>
       </c>
-      <c r="B13" s="38" t="s">
-        <v>286</v>
-      </c>
-      <c r="C13" s="38" t="s">
+      <c r="B13" s="34" t="s">
+        <v>275</v>
+      </c>
+      <c r="C13" s="34" t="s">
         <v>119</v>
       </c>
       <c r="D13" s="17">
         <v>2</v>
       </c>
-      <c r="E13" s="39" t="s">
+      <c r="E13" s="35" t="s">
         <v>108</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="G13" s="39" t="s">
+        <v>302</v>
+      </c>
+      <c r="G13" s="35" t="s">
         <v>108</v>
       </c>
       <c r="H13" s="22">
@@ -10135,20 +10136,20 @@
       <c r="A14" s="24">
         <v>13</v>
       </c>
-      <c r="B14" s="38" t="s">
-        <v>287</v>
-      </c>
-      <c r="C14" s="38" t="s">
+      <c r="B14" s="34" t="s">
+        <v>276</v>
+      </c>
+      <c r="C14" s="34" t="s">
         <v>120</v>
       </c>
       <c r="D14" s="17">
         <v>1.5</v>
       </c>
-      <c r="E14" s="39" t="s">
+      <c r="E14" s="35" t="s">
         <v>107</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>52</v>
@@ -10167,22 +10168,22 @@
       <c r="A15" s="24">
         <v>14</v>
       </c>
-      <c r="B15" s="38" t="s">
-        <v>304</v>
-      </c>
-      <c r="C15" s="38" t="s">
+      <c r="B15" s="34" t="s">
+        <v>293</v>
+      </c>
+      <c r="C15" s="34" t="s">
         <v>121</v>
       </c>
       <c r="D15" s="17">
         <v>1.5</v>
       </c>
-      <c r="E15" s="39" t="s">
+      <c r="E15" s="35" t="s">
         <v>107</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="G15" s="39" t="s">
+        <v>302</v>
+      </c>
+      <c r="G15" s="35" t="s">
         <v>107</v>
       </c>
       <c r="H15" s="22">
@@ -10199,22 +10200,22 @@
       <c r="A16" s="24">
         <v>15</v>
       </c>
-      <c r="B16" s="38" t="s">
-        <v>305</v>
-      </c>
-      <c r="C16" s="38" t="s">
-        <v>306</v>
+      <c r="B16" s="34" t="s">
+        <v>294</v>
+      </c>
+      <c r="C16" s="34" t="s">
+        <v>295</v>
       </c>
       <c r="D16" s="17">
         <v>1.5</v>
       </c>
-      <c r="E16" s="39" t="s">
+      <c r="E16" s="35" t="s">
         <v>107</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="G16" s="39" t="s">
+        <v>302</v>
+      </c>
+      <c r="G16" s="35" t="s">
         <v>108</v>
       </c>
       <c r="H16" s="22">
@@ -10231,20 +10232,20 @@
       <c r="A17" s="24">
         <v>16</v>
       </c>
-      <c r="B17" s="38" t="s">
-        <v>288</v>
-      </c>
-      <c r="C17" s="38" t="s">
+      <c r="B17" s="34" t="s">
+        <v>277</v>
+      </c>
+      <c r="C17" s="34" t="s">
         <v>122</v>
       </c>
       <c r="D17" s="17">
         <v>1.5</v>
       </c>
-      <c r="E17" s="39" t="s">
+      <c r="E17" s="35" t="s">
         <v>108</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>52</v>
@@ -10263,22 +10264,22 @@
       <c r="A18" s="24">
         <v>17</v>
       </c>
-      <c r="B18" s="38" t="s">
-        <v>289</v>
-      </c>
-      <c r="C18" s="38" t="s">
+      <c r="B18" s="34" t="s">
+        <v>278</v>
+      </c>
+      <c r="C18" s="34" t="s">
         <v>123</v>
       </c>
       <c r="D18" s="17">
         <v>1.5</v>
       </c>
-      <c r="E18" s="39" t="s">
+      <c r="E18" s="35" t="s">
         <v>109</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="G18" s="39" t="s">
+        <v>302</v>
+      </c>
+      <c r="G18" s="35" t="s">
         <v>107</v>
       </c>
       <c r="H18" s="22">
@@ -10295,22 +10296,22 @@
       <c r="A19" s="24">
         <v>18</v>
       </c>
-      <c r="B19" s="38" t="s">
-        <v>298</v>
-      </c>
-      <c r="C19" s="38" t="s">
-        <v>299</v>
+      <c r="B19" s="34" t="s">
+        <v>287</v>
+      </c>
+      <c r="C19" s="34" t="s">
+        <v>288</v>
       </c>
       <c r="D19" s="17">
         <v>1.5</v>
       </c>
-      <c r="E19" s="39" t="s">
+      <c r="E19" s="35" t="s">
         <v>108</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="G19" s="39" t="s">
+        <v>302</v>
+      </c>
+      <c r="G19" s="35" t="s">
         <v>108</v>
       </c>
       <c r="H19" s="22">
@@ -10327,20 +10328,20 @@
       <c r="A20" s="24">
         <v>19</v>
       </c>
-      <c r="B20" s="38" t="s">
-        <v>294</v>
-      </c>
-      <c r="C20" s="38" t="s">
-        <v>296</v>
+      <c r="B20" s="34" t="s">
+        <v>283</v>
+      </c>
+      <c r="C20" s="34" t="s">
+        <v>285</v>
       </c>
       <c r="D20" s="17">
         <v>3</v>
       </c>
-      <c r="E20" s="39" t="s">
+      <c r="E20" s="35" t="s">
         <v>107</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>52</v>
@@ -10359,22 +10360,22 @@
       <c r="A21" s="24">
         <v>20</v>
       </c>
-      <c r="B21" s="38" t="s">
-        <v>295</v>
-      </c>
-      <c r="C21" s="38" t="s">
-        <v>297</v>
+      <c r="B21" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="C21" s="34" t="s">
+        <v>286</v>
       </c>
       <c r="D21" s="17">
         <v>3</v>
       </c>
-      <c r="E21" s="39" t="s">
+      <c r="E21" s="35" t="s">
         <v>107</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="G21" s="39" t="s">
+        <v>302</v>
+      </c>
+      <c r="G21" s="35" t="s">
         <v>107</v>
       </c>
       <c r="H21" s="22">
@@ -10391,23 +10392,23 @@
       <c r="A22" s="24">
         <v>21</v>
       </c>
-      <c r="B22" s="38" t="s">
-        <v>310</v>
-      </c>
-      <c r="C22" s="38" t="s">
-        <v>311</v>
+      <c r="B22" s="34" t="s">
+        <v>299</v>
+      </c>
+      <c r="C22" s="34" t="s">
+        <v>300</v>
       </c>
       <c r="D22" s="17">
         <v>3</v>
       </c>
-      <c r="E22" s="39" t="s">
+      <c r="E22" s="35" t="s">
         <v>107</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="G22" s="39" t="s">
-        <v>309</v>
+        <v>302</v>
+      </c>
+      <c r="G22" s="35" t="s">
+        <v>298</v>
       </c>
       <c r="H22" s="22">
         <v>1300</v>
@@ -10423,20 +10424,20 @@
       <c r="A23" s="24">
         <v>22</v>
       </c>
-      <c r="B23" s="38" t="s">
-        <v>290</v>
-      </c>
-      <c r="C23" s="38" t="s">
+      <c r="B23" s="34" t="s">
+        <v>279</v>
+      </c>
+      <c r="C23" s="34" t="s">
         <v>124</v>
       </c>
       <c r="D23" s="17">
         <v>3</v>
       </c>
-      <c r="E23" s="39" t="s">
+      <c r="E23" s="35" t="s">
         <v>108</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>52</v>
@@ -10455,22 +10456,22 @@
       <c r="A24" s="24">
         <v>23</v>
       </c>
-      <c r="B24" s="38" t="s">
-        <v>291</v>
-      </c>
-      <c r="C24" s="38" t="s">
+      <c r="B24" s="34" t="s">
+        <v>280</v>
+      </c>
+      <c r="C24" s="34" t="s">
         <v>125</v>
       </c>
       <c r="D24" s="17">
         <v>3</v>
       </c>
-      <c r="E24" s="39" t="s">
+      <c r="E24" s="35" t="s">
         <v>108</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="G24" s="39" t="s">
+        <v>302</v>
+      </c>
+      <c r="G24" s="35" t="s">
         <v>107</v>
       </c>
       <c r="H24" s="22">
@@ -10487,22 +10488,22 @@
       <c r="A25" s="24">
         <v>24</v>
       </c>
-      <c r="B25" s="38" t="s">
-        <v>292</v>
-      </c>
-      <c r="C25" s="38" t="s">
+      <c r="B25" s="34" t="s">
+        <v>281</v>
+      </c>
+      <c r="C25" s="34" t="s">
         <v>126</v>
       </c>
       <c r="D25" s="17">
         <v>3</v>
       </c>
-      <c r="E25" s="39" t="s">
+      <c r="E25" s="35" t="s">
         <v>108</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="G25" s="39" t="s">
+        <v>302</v>
+      </c>
+      <c r="G25" s="35" t="s">
         <v>108</v>
       </c>
       <c r="H25" s="22">
@@ -10523,7 +10524,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10562,51 +10563,51 @@
       <c r="A5" t="s">
         <v>100</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
     </row>
     <row r="6" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>102</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="38" t="s">
         <v>130</v>
       </c>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
       <c r="H6" s="19"/>
       <c r="I6" s="19"/>
       <c r="J6" s="19"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="38" t="s">
         <v>131</v>
       </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>103</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="39" t="s">
         <v>104</v>
       </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">

--- a/Support/Sunac2019/Data/本地原型数据.xlsx
+++ b/Support/Sunac2019/Data/本地原型数据.xlsx
@@ -1824,8 +1824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BI70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="L61" sqref="L61"/>
+    <sheetView tabSelected="1" topLeftCell="AH43" workbookViewId="0">
+      <selection activeCell="BH69" sqref="BH69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -9347,7 +9347,9 @@
       </c>
       <c r="AH66" s="4"/>
       <c r="AI66" s="4"/>
-      <c r="AJ66" s="4"/>
+      <c r="AJ66" s="4">
+        <v>900</v>
+      </c>
       <c r="AK66" s="4"/>
       <c r="AL66" s="10" t="s">
         <v>52</v>
@@ -9457,7 +9459,9 @@
       </c>
       <c r="AH67" s="4"/>
       <c r="AI67" s="4"/>
-      <c r="AJ67" s="4"/>
+      <c r="AJ67" s="4">
+        <v>900</v>
+      </c>
       <c r="AK67" s="4"/>
       <c r="AL67" s="10" t="s">
         <v>52</v>
@@ -9497,7 +9501,9 @@
       </c>
       <c r="BF67" s="4"/>
       <c r="BG67" s="4"/>
-      <c r="BH67" s="4"/>
+      <c r="BH67" s="4">
+        <v>600</v>
+      </c>
       <c r="BI67" s="4"/>
     </row>
     <row r="68" spans="1:61" x14ac:dyDescent="0.25">

--- a/Support/Sunac2019/Data/本地原型数据.xlsx
+++ b/Support/Sunac2019/Data/本地原型数据.xlsx
@@ -1824,8 +1824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BI70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AH43" workbookViewId="0">
-      <selection activeCell="BH69" sqref="BH69"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="Q61" sqref="Q61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -8432,10 +8432,10 @@
       </c>
       <c r="O58" s="7"/>
       <c r="P58" s="7">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="Q58" s="7">
-        <v>2700</v>
+        <v>3500</v>
       </c>
       <c r="R58" s="7"/>
       <c r="S58" s="7"/>
